--- a/CSV files/final_df.xlsx
+++ b/CSV files/final_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vedphadke/Desktop/Math M148/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93601F95-F615-0346-9FA3-1638EF75F60B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784DE570-BFC4-8747-8277-CD11D915D19F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{06F729F3-F0C8-6C40-AB7F-818CD67C828D}"/>
+    <workbookView xWindow="140" yWindow="620" windowWidth="14180" windowHeight="15860" xr2:uid="{06F729F3-F0C8-6C40-AB7F-818CD67C828D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="234">
   <si>
     <t>Stimulus name</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>motorcycle diaries audio</t>
-  </si>
-  <si>
-    <t>pema chodron audio</t>
   </si>
   <si>
     <t>duo des fleurs audio</t>
@@ -1543,200 +1540,6 @@
  -3.88786867e-02 -2.80079603e-01  3.16980779e-01  4.83988404e-01]</t>
   </si>
   <si>
-    <t>[-1.29708782e-01  1.60862818e-01 -9.01111439e-02 -1.08875476e-01
- -2.00603798e-01 -1.86572477e-01  2.54801273e-01  3.16406697e-01
- -4.43985686e-02 -2.65730023e-01 -4.66816314e-02  4.31775004e-02
-  1.40075497e-02  3.63529682e-01  2.12574154e-01  1.86417121e-02
- -2.00442463e-01  2.12603942e-01  2.18080416e-01 -1.49819702e-01
- -3.99428718e-02 -5.00287898e-02 -8.58110040e-02 -2.43542138e-02
-  6.93147182e-02 -6.67302832e-02  8.12712088e-02 -2.18116567e-01
-  2.84898169e-02  1.46174684e-01  5.42012677e-02  1.60550863e-01
- -2.71296233e-01 -3.17616714e-03  1.88626628e-02 -3.64842862e-02
-  1.00094505e-01  4.64183139e-03 -5.29501645e-04  2.22756676e-02
- -8.11209753e-02 -1.98294856e-02  9.99672636e-02 -8.97752121e-02
- -1.22083619e-01 -2.08700702e-01 -2.23919129e+00 -1.34563595e-01
- -2.74612278e-01 -1.54505014e-01  7.78236091e-02  8.58843699e-03
-  2.15377420e-01  2.49594927e-01  3.23612541e-02  2.46208370e-01
- -1.52574569e-01  5.23804724e-01  4.49140705e-02  6.49442375e-02
-  2.49302551e-01 -3.31520177e-02  3.48742083e-02  1.43477187e-01
-  2.74586268e-02  1.94910780e-01 -1.69243775e-02  2.19767362e-01
- -1.47645608e-01  3.78889084e-01 -4.23428386e-01 -2.20862642e-01
-  1.85430765e-01  1.18164076e-02 -9.02488753e-02 -3.10997039e-01
-  8.90148506e-02  1.56854644e-01 -9.95225459e-02  4.95472327e-02
-  1.35915443e-01  2.39408851e-01  1.52299345e-01  7.84903839e-02
-  6.54227063e-02  2.90266544e-01 -1.39607742e-01 -1.27276704e-01
-  1.03723958e-01  3.98432940e-01 -4.99237441e-02  4.86492068e-02
-  4.62094657e-02  2.23871037e-01  2.77405918e-01 -1.86818153e-01
-  1.19849160e-01  3.37344632e-02  1.59600601e-02  2.36742496e-01
- -1.61704533e-02 -6.21309094e-02  6.87906295e-02 -4.19080764e-01
-  5.41689852e-03 -1.86590720e-02 -1.21173233e-01 -1.98881909e-01
-  1.61467686e-01 -2.64585733e+00  2.00564951e-01  7.58249685e-02
- -1.23784751e-01 -3.10043748e-02 -1.60824209e-02  3.79359007e-01
-  2.59822965e-01  1.99935120e-02  8.05268735e-02  2.08108529e-01
- -7.44244903e-02  3.95452410e-01 -1.55030442e-02 -1.22240834e-01
-  2.88504153e-01  1.97096691e-01  1.03253886e-01 -8.56953263e-02
-  3.91528383e-02  1.95335429e-02  3.43858078e-02  4.12408173e-01
-  5.42833619e-02 -2.18114421e-01 -1.34326175e-01 -9.40545201e-02
-  3.27171683e-01 -8.74484703e-02 -7.52126202e-02 -1.92860469e-01
- -2.66030699e-01 -6.23020902e-02 -3.15845299e+00  9.96485129e-02
-  3.97691101e-01 -1.33269504e-01 -2.32030511e-01 -8.72528777e-02
-  1.52243286e-01  1.20547950e-01  8.38904381e-02  3.20794694e-02
- -6.66982532e-02  1.06529579e-01 -2.61796415e-01 -1.47249922e-01
- -5.32500967e-02 -2.64743026e-02  8.02002400e-02  3.48534673e-01
-  4.24951427e-02 -1.17360242e-01  1.60163164e-01 -1.52237430e-01
- -9.72159952e-02 -1.60658494e-01  2.71912426e-01  2.34366477e-01
-  1.23301573e-01 -5.41563611e-03 -1.50024086e-01 -1.67274922e-01
-  2.85845190e-01  1.96291223e-01  1.32885039e-01 -1.51489124e-01
-  7.41834939e-02  1.64858148e-01  5.14607914e-02 -3.73074114e-02
- -1.68332666e-01  4.20513421e-01 -7.25538358e-02 -5.52693456e-02
-  1.91188321e-01  7.82981366e-02  2.89024383e-01 -7.25019723e-02
- -9.40364823e-02  2.50236183e-01 -2.07543463e-01 -5.96657023e-02
-  8.53896290e-02  5.44970334e-02  3.59074712e-01 -5.50100692e-02
-  9.28398147e-02 -3.66337419e-01  2.18110338e-01  2.76518017e-01
-  4.10187058e-02 -5.82117215e-02 -9.05671418e-02  9.97007266e-03
-  4.72964108e-04  3.90043926e+00  8.88167843e-02 -1.56265870e-01
-  1.33201629e-01  1.27847254e-01 -6.58093467e-02  2.52078772e-01
-  1.53423063e-02 -3.10467601e-01  6.83956174e-03 -1.01610608e-01
-  3.47142756e-01  7.77260959e-02 -1.32443056e-01 -8.84101018e-02
-  2.45466799e-01  6.93392083e-02 -3.59596275e-02  9.27821398e-02
- -2.17123568e-01  6.72350172e-04  4.91272509e-02 -3.48146297e-02
- -1.22338839e-01 -1.13376856e+00  1.84184518e-02  8.18398744e-02
- -1.32492170e-01  3.73686969e-01 -1.67106688e-01  1.01772062e-02
- -5.39883338e-02 -1.22622997e-01  1.12794973e-01  6.70691729e-02
- -3.03377062e-02  2.34404534e-01  1.21891789e-01  2.64737070e-01
- -1.75923318e-01  4.36809927e-01  3.12506735e-01 -1.56126618e-01
-  1.51220962e-01  6.92543983e-02  2.89441735e-01 -1.79101214e-01
- -7.99327865e-02 -1.56197801e-01 -7.43612945e-02 -1.19519167e-01
-  3.00299376e-02 -2.82810163e-02 -2.47522324e-01 -1.82492379e-02
- -3.02721620e-01 -6.96368068e-02  1.02497451e-01 -1.47259310e-02
- -3.02694947e-01 -1.50062174e-01  6.59308583e-03 -2.36992642e-01
-  1.01876356e-01 -6.93169329e-03  1.35270908e-01 -1.12655111e-01
- -1.27420485e-01 -4.07379341e+00 -2.40379758e-03  1.89035162e-01
-  3.89623642e-01  3.16973627e-01 -1.53567076e-01  4.24358286e-02
-  2.19977885e-01  9.09862593e-02 -3.32431972e-01  2.43797421e-01
-  1.08580664e-01 -1.04645595e-01  2.61125654e-01 -3.01192820e-01
-  2.46037945e-01  9.80057195e-02  1.40933711e-02 -5.22895753e-02
-  1.94617268e-02  6.09056167e-02  3.43749732e-01 -1.95209980e-01
-  3.84386629e-02  1.11132801e-01 -6.21453486e-02 -1.19165704e-01
- -9.72291604e-02  1.79224372e-01 -1.55945599e-01 -2.31953114e-02
- -9.63918269e-02  1.77086052e-02  1.65918041e-02 -8.27978477e-02
- -3.10002708e+00 -3.60716581e-02 -9.54987481e-02 -2.31618300e-01
-  1.18797012e-01 -6.43232539e-02  2.67253041e-01  1.07051814e-02
- -3.30808222e-01  3.37293856e-02  7.42446557e-02 -2.96232738e-02
- -4.31881137e-02  2.66629010e-01  1.51956499e-01 -3.73903848e-02
-  1.79898277e-01  1.80780441e-01  4.54523861e-02  1.40483260e-01
- -5.20824119e-02  1.02093734e-01 -3.96865383e-02 -1.28880337e-01
-  1.56634375e-02  2.69196630e-01 -2.72103310e-01  1.26708746e-02
- -1.87225088e-01  1.08558439e-01 -3.29433754e-02  1.26779797e-02
-  1.04647331e-01 -8.03130791e-02 -1.81796879e-01 -1.47583276e-01
-  2.08819896e-01  1.34946927e-01  4.75772977e-01  1.22218817e-01
- -6.30589202e-02  4.27058846e-01  9.11763310e-02  2.75082409e-01
-  2.63097018e-01  5.40055661e-03  6.97676139e-03 -2.02650040e-01
-  4.59802374e-02 -9.36198793e-03 -1.14238672e-01  4.52633463e-02
-  1.00692677e+00 -2.10441098e-01  1.36490434e-01 -4.74753268e-02
-  2.08341226e-01 -3.06498334e-02  2.29365915e-01  5.77678457e-02
-  4.88212883e-01 -2.81055961e-02  2.40478069e-01  2.31800023e-02
-  1.48300920e-03 -2.19949618e-01  1.96663648e-01 -3.52345526e-01
-  1.05208211e-01  1.73013970e-01  4.83986400e-02  2.24759921e-01
- -3.22958082e-02 -8.49429727e-01 -9.67083350e-02  1.25523537e-01
- -2.46942192e-01  2.14530110e-01  1.56511799e-01 -1.31044894e-01
- -1.36374086e-01  4.46119793e-02  3.71227898e-02  4.19794440e-01
- -1.88683242e-01 -3.17219272e-02  4.29929085e-02 -1.26200179e-02
- -3.56050104e-01  1.35824844e-01 -2.29874864e-01  2.78246403e-01
- -5.55312447e-02  6.71551526e-02  7.28051364e-02  1.23860151e-01
-  2.01321825e-01 -7.65191376e-01  5.94624020e-02 -2.10521117e-01
- -5.05495705e-02 -4.14125055e-01 -2.16471076e-01  1.69025540e-01
- -1.16944239e-01 -7.03899041e-02 -1.14475690e-01  2.99656481e-01
-  6.27750754e-02  2.06534088e-01  2.79036630e-02  1.01063997e-01
-  7.62227848e-02  2.64254600e-01  6.95538819e-01  7.83379283e-03
- -2.78738141e-02  3.06272954e-01  8.95988792e-02  1.79098934e-01
-  2.16122478e-01  1.45219475e-01  8.27424079e-02 -7.43371844e-02
- -2.55943775e-01  3.02747302e-02  1.88731421e-02 -2.77601391e-01
- -3.00468206e-01 -9.99421701e-02  1.04050413e-01 -1.62199929e-01
- -2.14429602e-01 -6.18344843e-01 -1.94626331e-01 -2.52481282e-01
- -1.76488832e-01  2.43152201e-01  1.54009074e-01  2.80129854e-02
-  2.10111290e-01 -7.51386806e-02 -1.69356436e-01  3.17832410e-01
-  3.27986404e-02  3.75121742e-01 -6.95993826e-02 -1.12519443e-01
- -1.59983575e-01  3.85737836e-01  1.28906295e-01 -3.92396957e-01
-  1.20182067e-01 -2.36197427e-01  1.29187778e-01 -8.32445920e-02
-  1.32017545e-02 -3.79984081e-02  7.32233524e-02  1.34199426e-01
-  8.06837715e-03  1.64532370e-03 -1.22723114e+00  2.68012106e-01
-  3.01001281e-01  4.32566479e-02  6.21380880e-02 -1.41486466e-01
- -2.15789199e-01  4.74282175e-01  1.09171279e-01 -1.14791974e-01
- -2.16928184e-01  3.91684361e-02 -7.87210166e-02  8.15043524e-02
- -1.00671865e-01 -4.07893322e-02  1.37202635e-01 -1.89443082e-01
-  3.07351667e-02  1.10701611e-02 -9.04364884e-02  2.10856944e-01
-  1.00868933e-01 -2.05810040e-01 -1.03560954e-01 -2.21127436e-01
- -4.35161591e-02  5.32464266e-01  2.18716618e-02  4.67569269e-02
-  1.22980587e-01 -3.24727446e-01 -3.44773501e-01 -4.15109247e-02
-  7.62401149e-02 -8.94124899e-03  1.65289268e-01 -3.72271948e-02
-  4.11499411e-01  1.57794356e-01 -1.73209578e-01  2.84126967e-01
-  1.61423370e-01 -2.02495247e-01  3.07144552e-01  2.62265086e-01
- -2.50250518e-01  1.81548059e-01  1.65082619e-01 -3.19472075e-01
- -1.54021129e-01  4.66437638e-02 -1.50903940e-01 -1.30792081e-01
-  2.04273567e-01 -6.38153851e-02  3.67209502e-02 -4.77561951e-02
- -3.77386957e-02 -1.53844163e-01  1.24084182e-01 -1.07768886e-01
- -2.12645322e-01  1.69464782e-01 -2.77468294e-01 -4.84316915e-01
-  1.96345448e-01 -1.66802779e-01 -7.95729831e-02  1.95704609e-01
-  2.79626727e-01 -5.46405502e-02 -1.58580780e-01  7.97446370e-02
- -3.03597063e-01  2.71708250e-01 -9.18829367e-02  3.69160017e-03
-  2.04449013e-01 -3.36233586e-01 -4.34746109e-02 -3.90595555e-01
- -2.50921041e-01  3.12265366e-01 -3.27942222e-02  9.42793041e-02
-  4.27823253e-02  6.57450408e-02 -9.24322456e-02 -9.73753929e-02
- -3.67473871e-01 -3.34879607e-01  2.59204745e-01  5.62690049e-02
-  7.74930883e-03  3.18636410e-02  7.32878372e-02 -2.33468879e-02
- -7.06581725e-03  6.37796074e-02 -1.27610609e-01  1.93134308e-01
-  1.76330850e-01  8.61334875e-02  1.69234663e-01  1.43376902e-01
-  4.09966320e-01  1.72039568e-01 -2.00561240e-01 -1.44683555e-01
- -1.42089883e-02  1.27357706e-01 -1.41512766e-01 -1.08611152e-01
-  5.61484881e-03  6.20596893e-02  2.08874226e-01 -1.62277445e-01
-  2.35659218e+00  3.95607829e-01  1.94263771e-01 -5.60793877e-02
-  1.57937437e-01  7.23173395e-02  9.85850673e-03 -1.13216992e-02
- -1.74895972e-01  2.23362759e-01 -1.33122355e-01  1.08902134e-01
-  5.15260622e-02  4.58892547e-02  3.27312201e-01  2.45255843e-01
- -2.54083365e-01 -2.11196646e-01 -3.52000207e-01 -1.08527645e-01
- -2.17107847e-01  2.39156306e-01  1.26022309e-01 -1.37187302e-01
-  6.54203892e-02  2.38129169e-01  2.01575726e-01 -3.90495025e-02
-  6.03123307e-02 -6.55688047e-02 -9.47463140e-02 -1.42963082e-02
-  9.83600854e-04  2.03099817e-01 -1.32280067e-01  1.21729836e-01
-  1.74449995e-01 -3.09697539e-01 -1.43883172e-02  2.11073220e-01
- -4.52547260e-02 -2.64731050e-01  4.92444366e-01  6.38723224e-02
-  5.09900488e-02  3.49091142e-01 -1.35209531e-01 -1.81314692e-01
-  1.71704292e-01  9.48312506e-02 -5.56506440e-02 -7.35012889e-02
- -2.51660526e-01  1.26649231e-01 -1.20259725e-01 -1.67572051e-01
-  2.57761896e-01 -1.59257844e-01 -2.23670036e-01  2.72311151e-01
-  3.16397846e-02  1.05753936e-01  2.59504199e-01 -2.37517998e-01
- -1.01530410e-01  2.85489578e-02 -5.67186773e-02  7.77076855e-02
-  4.61624525e-02 -4.67906073e-02 -1.22827291e-01  1.59784451e-01
-  1.48705199e-01  3.65178697e-02  2.00018749e-01  1.96273308e-02
-  1.92839876e-01 -1.27240315e-01 -2.18807861e-01 -3.04900980e+00
-  5.30047752e-02 -9.64226841e-04  1.00351810e-01  7.76464865e-02
-  2.70836890e-01  1.84728920e-01 -4.97420318e-02 -7.00540096e-02
- -1.72820091e-01  9.01203752e-02  2.52103448e-01  2.29176089e-01
-  2.02449888e-01  5.44691682e-02  1.35854974e-01  7.44242817e-02
- -2.96046495e-01 -4.87625636e-02 -1.26233354e-01 -6.43367693e-02
-  1.01323128e-01 -6.32853955e-02 -7.14922473e-02 -2.58801281e-01
-  2.47130200e-01 -6.84455782e-02 -8.66628140e-02  1.59886211e-01
-  1.17821082e-01 -5.58328778e-02  2.72991508e-01 -3.60332755e-03
-  8.65836963e-02  3.46432552e-02 -1.55816838e-01  1.00398948e-02
-  2.52804123e-02  8.83479118e-02  1.34908333e-01 -6.95728958e-02
-  3.80827576e-01  2.18069647e-02  9.63362083e-02 -2.45287314e-01
- -1.23799868e-01  2.80729860e-01 -1.83095440e-01  4.15213555e-01
- -2.39717051e-01 -1.36547973e-02  3.48980315e-02 -9.37523041e-03
-  1.03350142e-02  2.61383176e-01  4.27274331e-02  3.10024805e-02
- -7.38172010e-02  3.66902277e-02 -6.06435090e-02  1.21764325e-01
-  3.04101519e-02 -9.15047303e-02 -3.50231305e-02  3.46431166e-01
- -2.76338786e-01 -1.37150854e-01 -1.95681497e-01  5.68258688e-02
- -4.58932156e-03  5.21280691e-02 -1.00133955e-01  3.49856764e-01
-  7.46683106e-02  8.85360986e-02  2.11190686e-01  2.71631598e-01
-  1.24357089e-01  1.72763150e-02  9.35932696e-02  9.46681295e-03
- -1.35902941e-01 -1.55351132e-01  1.00448176e-01  1.52629733e-01
- -8.04084206e+00 -1.85125425e-01 -2.21296117e-01 -1.26757517e-01
-  1.41869202e-01 -7.63360634e-02  2.75757834e-02 -1.57687366e-01
-  7.32005313e-02  1.06206194e-01  4.58320044e-02 -7.16771558e-02
- -1.25403684e-02 -2.57167697e-01  2.42242202e-01  2.62525916e-01]</t>
-  </si>
-  <si>
     <t>[-1.49537027e-01  3.70417237e-02  1.75606564e-01 -4.36799437e-01
  -3.24021071e-01 -4.86399941e-02  5.66465378e-01  4.36227411e-01
  -9.27552283e-02 -5.07965982e-01  1.76423147e-01  2.07977682e-01
@@ -7236,18 +7039,32 @@
   <si>
     <t>[-39.486201634999055, 54.75749620450136, 16.365925509575415, 2.633953482670433, -12.157128672404838]</t>
   </si>
+  <si>
+    <t>chill_prob</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -7270,13 +7087,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7611,81 +7430,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21688B59-5BFE-E241-A772-67CF08751F79}">
-  <dimension ref="A1:T42"/>
+  <dimension ref="A1:U997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="73" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.6640625" customWidth="1"/>
-    <col min="13" max="13" width="38.5" customWidth="1"/>
+    <col min="1" max="1" width="53.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="3" max="14" width="0.1640625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="0.5" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="0.1640625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="27.6640625" customWidth="1"/>
+    <col min="18" max="18" width="18.1640625" customWidth="1"/>
+    <col min="19" max="19" width="46.33203125" customWidth="1"/>
+    <col min="20" max="20" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>42</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>43</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>44</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>45</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>46</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>47</v>
       </c>
-      <c r="M1" t="s">
-        <v>48</v>
-      </c>
       <c r="N1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O1" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1" t="s">
         <v>109</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>110</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>111</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>112</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>113</v>
       </c>
-      <c r="S1" t="s">
-        <v>114</v>
-      </c>
-      <c r="T1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="U1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -7723,19 +7552,22 @@
         <v>0</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R2" t="s">
+        <v>123</v>
+      </c>
+      <c r="S2" t="s">
+        <v>124</v>
+      </c>
+      <c r="T2" t="s">
         <v>125</v>
       </c>
-      <c r="S2" t="s">
-        <v>126</v>
-      </c>
-      <c r="T2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="U2" s="4">
+        <v>0.538462</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -7773,19 +7605,22 @@
         <v>0</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R3" t="s">
+        <v>114</v>
+      </c>
+      <c r="S3" t="s">
+        <v>115</v>
+      </c>
+      <c r="T3" t="s">
         <v>116</v>
       </c>
-      <c r="S3" t="s">
-        <v>117</v>
-      </c>
-      <c r="T3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="U3" s="4">
+        <v>0.44594600000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -7823,19 +7658,22 @@
         <v>0</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R4" t="s">
+        <v>117</v>
+      </c>
+      <c r="S4" t="s">
+        <v>118</v>
+      </c>
+      <c r="T4" t="s">
         <v>119</v>
       </c>
-      <c r="S4" t="s">
-        <v>120</v>
-      </c>
-      <c r="T4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="U4" s="4">
+        <v>0.53246800000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -7873,19 +7711,22 @@
         <v>1.8956984664212698E-2</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R5" t="s">
+        <v>120</v>
+      </c>
+      <c r="S5" t="s">
+        <v>121</v>
+      </c>
+      <c r="T5" t="s">
         <v>122</v>
       </c>
-      <c r="S5" t="s">
-        <v>123</v>
-      </c>
-      <c r="T5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="U5" s="4">
+        <v>0.61333300000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -7923,19 +7764,22 @@
         <v>0</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R6" t="s">
+        <v>126</v>
+      </c>
+      <c r="S6" t="s">
+        <v>127</v>
+      </c>
+      <c r="T6" t="s">
         <v>128</v>
       </c>
-      <c r="S6" t="s">
-        <v>129</v>
-      </c>
-      <c r="T6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="U6" s="4">
+        <v>0.41666700000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -7973,19 +7817,22 @@
         <v>2.58051373868171E-3</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R7" t="s">
+        <v>129</v>
+      </c>
+      <c r="S7" t="s">
+        <v>130</v>
+      </c>
+      <c r="T7" t="s">
         <v>131</v>
       </c>
-      <c r="S7" t="s">
-        <v>132</v>
-      </c>
-      <c r="T7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="U7" s="4">
+        <v>0.75675700000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -8023,19 +7870,22 @@
         <v>9.5922392123203498E-2</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R8" t="s">
+        <v>132</v>
+      </c>
+      <c r="S8" t="s">
+        <v>133</v>
+      </c>
+      <c r="T8" t="s">
         <v>134</v>
       </c>
-      <c r="S8" t="s">
-        <v>135</v>
-      </c>
-      <c r="T8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="U8" s="4">
+        <v>0.56164400000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -8073,19 +7923,22 @@
         <v>0</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R9" t="s">
+        <v>135</v>
+      </c>
+      <c r="S9" t="s">
+        <v>136</v>
+      </c>
+      <c r="T9" t="s">
         <v>137</v>
       </c>
-      <c r="S9" t="s">
-        <v>138</v>
-      </c>
-      <c r="T9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="U9" s="4">
+        <v>0.44155800000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -8123,19 +7976,22 @@
         <v>4.9113992111922498E-3</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S10" t="s">
+        <v>139</v>
+      </c>
+      <c r="T10" t="s">
         <v>140</v>
       </c>
-      <c r="S10" t="s">
-        <v>141</v>
-      </c>
-      <c r="T10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="U10" s="4">
+        <v>0.43478299999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -8173,383 +8029,416 @@
         <v>0</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="S11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="T11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+      <c r="U11" s="4">
+        <v>0.338028</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>247</v>
+        <v>365</v>
       </c>
       <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.166034226190476</v>
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>9.7055555555555506E-2</v>
       </c>
       <c r="E12">
-        <v>-0.84970000000000001</v>
+        <v>0.96340000000000003</v>
       </c>
       <c r="F12">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="G12">
-        <v>10</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0.23980599870995001</v>
+        <v>30</v>
+      </c>
+      <c r="H12" s="3">
+        <v>3.38345511078169E-25</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>9.7271090487600201E-2</v>
       </c>
       <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2">
-        <v>2.6604242928057201E-2</v>
+        <v>4.6062466396376497E-2</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="R12" t="s">
+        <v>143</v>
+      </c>
+      <c r="S12" t="s">
+        <v>144</v>
+      </c>
+      <c r="T12" t="s">
+        <v>145</v>
+      </c>
+      <c r="U12" s="4">
+        <v>0.45070399999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>365</v>
+        <v>72</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>9.7055555555555506E-2</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0.96340000000000003</v>
+        <v>0.9375</v>
       </c>
       <c r="F13">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="G13">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="H13" s="3">
-        <v>3.38345511078169E-25</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>1.36810040427829E-24</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1.02960112496619E-2</v>
       </c>
       <c r="J13">
-        <v>9.7271090487600201E-2</v>
+        <v>4.6745737960469103E-2</v>
       </c>
       <c r="K13">
-        <v>4.6062466396376497E-2</v>
+        <v>3.3854088662103703E-2</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="S13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="T13" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+      <c r="U13" s="4">
+        <v>0.41891899999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="E14">
-        <v>0.9375</v>
+        <v>-0.19439999999999999</v>
       </c>
       <c r="F14">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G14">
-        <v>6</v>
-      </c>
-      <c r="H14" s="3">
-        <v>1.36810040427829E-24</v>
-      </c>
-      <c r="I14" s="2">
-        <v>1.02960112496619E-2</v>
-      </c>
-      <c r="J14">
-        <v>4.6745737960469103E-2</v>
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>4.5770076410634797E-2</v>
+      </c>
+      <c r="J14" s="2">
+        <v>2.9416680162542501E-2</v>
       </c>
       <c r="K14">
-        <v>3.3854088662103703E-2</v>
+        <v>3.9883864991663499E-2</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="S14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="T14" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="U14" s="4">
+        <v>0.44871800000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15">
-        <v>-2.5000000000000001E-2</v>
+      <c r="D15" s="2">
+        <v>0.15904761904761899</v>
       </c>
       <c r="E15">
-        <v>-0.19439999999999999</v>
+        <v>0.95650000000000002</v>
       </c>
       <c r="F15">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G15">
-        <v>3</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="H15" s="3">
+        <v>5.6955563851185403E-28</v>
       </c>
       <c r="I15">
-        <v>4.5770076410634797E-2</v>
-      </c>
-      <c r="J15" s="2">
-        <v>2.9416680162542501E-2</v>
+        <v>6.0177434527791999E-2</v>
+      </c>
+      <c r="J15">
+        <v>8.0044143568345702E-2</v>
       </c>
       <c r="K15">
-        <v>3.9883864991663499E-2</v>
+        <v>9.3653382524430204E-3</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="S15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="T15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+      <c r="U15" s="4">
+        <v>0.46052599999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="B16">
-        <v>124</v>
+        <v>617</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16" s="2">
-        <v>0.15904761904761899</v>
+      <c r="D16">
+        <v>6.5134680134680101E-2</v>
       </c>
       <c r="E16">
-        <v>0.95650000000000002</v>
+        <v>0.99680000000000002</v>
       </c>
       <c r="F16">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="G16">
-        <v>9</v>
-      </c>
-      <c r="H16" s="3">
-        <v>5.6955563851185403E-28</v>
+        <v>36</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>6.0177434527791999E-2</v>
-      </c>
-      <c r="J16">
-        <v>8.0044143568345702E-2</v>
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.76811789038908795</v>
       </c>
       <c r="K16">
-        <v>9.3653382524430204E-3</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="S16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="T16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+      <c r="U16" s="4">
+        <v>0.62162200000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B17">
-        <v>617</v>
+        <v>500</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17">
-        <v>6.5134680134680101E-2</v>
+      <c r="D17" s="2">
+        <v>0.14551175015460699</v>
       </c>
       <c r="E17">
-        <v>0.99680000000000002</v>
+        <v>0.98719999999999997</v>
       </c>
       <c r="F17">
-        <v>143</v>
+        <v>72</v>
       </c>
       <c r="G17">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2">
-        <v>0.76811789038908795</v>
+      <c r="I17" s="2">
+        <v>0.189669800092197</v>
+      </c>
+      <c r="J17">
+        <v>0.481391972832241</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>3.4581966879225601E-2</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="S17" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="T17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+      <c r="U17" s="4">
+        <v>0.62666699999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B18">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" s="2">
-        <v>0.14551175015460699</v>
+      <c r="D18">
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0.98719999999999997</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>25</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0.189669800092197</v>
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.58857608175554399</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.481391972832241</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>3.4581966879225601E-2</v>
+        <v>0</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="R18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T18" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+      <c r="U18" s="4">
+        <v>0.52564100000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>410</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>6.2877624167946705E-2</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.91520000000000001</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0.58857608175554399</v>
+        <v>27</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -8558,771 +8447,822 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.85756502541866597</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="R19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="S19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="T19" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+      <c r="U19" s="4">
+        <v>0.50704199999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B20">
-        <v>410</v>
+        <v>733</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20">
-        <v>6.2877624167946705E-2</v>
+      <c r="D20" s="2">
+        <v>0.12324172850958499</v>
       </c>
       <c r="E20">
-        <v>0.91520000000000001</v>
+        <v>0.98880000000000001</v>
       </c>
       <c r="F20">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="G20">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0.85756502541866597</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
+        <v>6.9499000032738803E-2</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1.7318732229378402E-2</v>
+      </c>
+      <c r="K20" s="2">
+        <v>2.36665789232402E-2</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0.83555927961929199</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R20" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="S20" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="T20" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+      <c r="U20" s="4">
+        <v>0.40845100000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>733</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21" s="2">
-        <v>0.12324172850958499</v>
+      <c r="D21">
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0.98880000000000001</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>49</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.58857608175554399</v>
       </c>
       <c r="I21">
-        <v>6.9499000032738803E-2</v>
-      </c>
-      <c r="J21" s="2">
-        <v>1.7318732229378402E-2</v>
-      </c>
-      <c r="K21" s="2">
-        <v>2.36665789232402E-2</v>
-      </c>
-      <c r="L21" s="2">
-        <v>0.83555927961929199</v>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>64</v>
+        <v>48</v>
+      </c>
+      <c r="N21">
+        <v>0.588074869501928</v>
+      </c>
+      <c r="O21" t="s">
+        <v>101</v>
+      </c>
+      <c r="P21">
+        <v>177.374737310406</v>
+      </c>
+      <c r="Q21">
+        <v>22.3779741620334</v>
       </c>
       <c r="R21" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="S21" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="T21" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+      <c r="U21" s="4">
+        <v>0.50724599999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.129642857142857</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.92169999999999996</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0.58857608175554399</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.39732642521571698</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
+        <v>9.0272502379379997E-3</v>
+      </c>
+      <c r="L22" s="3">
+        <v>1.7178570702845601E-5</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="N22">
-        <v>0.588074869501928</v>
+        <v>0.89201128260113205</v>
       </c>
       <c r="O22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P22">
-        <v>177.374737310406</v>
+        <v>18.381782434796399</v>
       </c>
       <c r="Q22">
-        <v>22.3779741620334</v>
+        <v>29.248180504637102</v>
       </c>
       <c r="R22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="S22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="T22" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+      <c r="U22" s="4">
+        <v>0.381579</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>201</v>
+        <v>98</v>
       </c>
       <c r="C23">
-        <v>24</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0.129642857142857</v>
+        <v>21</v>
+      </c>
+      <c r="D23">
+        <v>0.13750000000000001</v>
       </c>
       <c r="E23">
-        <v>0.92169999999999996</v>
+        <v>0.85189999999999999</v>
       </c>
       <c r="F23">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G23">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23" s="2">
-        <v>0.39732642521571698</v>
+        <v>0.13549895058716999</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.0272502379379997E-3</v>
-      </c>
-      <c r="L23" s="3">
-        <v>1.7178570702845601E-5</v>
+        <v>7.9130224508375396E-2</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N23">
-        <v>0.89201128260113205</v>
+        <v>2.0495712413510701</v>
       </c>
       <c r="O23" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P23">
-        <v>18.381782434796399</v>
+        <v>68.793390390652704</v>
       </c>
       <c r="Q23">
-        <v>29.248180504637102</v>
+        <v>39.830472730805802</v>
       </c>
       <c r="R23" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S23" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="T23" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+      <c r="U23" s="4">
+        <v>0.55882399999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24">
+        <v>916</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.16146685340802899</v>
+      </c>
+      <c r="E24">
+        <v>0.99829999999999997</v>
+      </c>
+      <c r="F24">
+        <v>142</v>
+      </c>
+      <c r="G24">
+        <v>68</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0.33222473073671399</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1.0078545483626401E-2</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N24">
+        <v>0.64083970966874204</v>
+      </c>
+      <c r="O24" t="s">
         <v>98</v>
       </c>
-      <c r="C24">
-        <v>21</v>
-      </c>
-      <c r="D24">
-        <v>0.13750000000000001</v>
-      </c>
-      <c r="E24">
-        <v>0.85189999999999999</v>
-      </c>
-      <c r="F24">
-        <v>15</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24" s="2">
-        <v>0.13549895058716999</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>7.9130224508375396E-2</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N24">
-        <v>2.0495712413510701</v>
-      </c>
-      <c r="O24" t="s">
-        <v>101</v>
-      </c>
       <c r="P24">
-        <v>68.793390390652704</v>
+        <v>51.094710906683197</v>
       </c>
       <c r="Q24">
-        <v>39.830472730805802</v>
+        <v>46.649189119781802</v>
       </c>
       <c r="R24" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="S24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="T24" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+      <c r="U24" s="4">
+        <v>0.56578899999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>916</v>
+        <v>238</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" s="2">
-        <v>0.16146685340802899</v>
+        <v>0.18619929453262701</v>
       </c>
       <c r="E25">
-        <v>0.99829999999999997</v>
+        <v>0.99050000000000005</v>
       </c>
       <c r="F25">
-        <v>142</v>
+        <v>31</v>
       </c>
       <c r="G25">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25" s="2">
-        <v>0.33222473073671399</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25" s="2">
-        <v>1.0078545483626401E-2</v>
+        <v>0.138774272945618</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1.42248511219764E-2</v>
+      </c>
+      <c r="K25">
+        <v>9.0345551511280594E-3</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.18903761765992999</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N25">
-        <v>0.64083970966874204</v>
+        <v>1.4697071844254801</v>
       </c>
       <c r="O25" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P25">
-        <v>51.094710906683197</v>
+        <v>28.155477964263898</v>
       </c>
       <c r="Q25">
-        <v>46.649189119781802</v>
+        <v>34.790597954538597</v>
       </c>
       <c r="R25" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="S25" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="T25" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+      <c r="U25" s="4">
+        <v>0.40540500000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>238</v>
+        <v>176</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" s="2">
-        <v>0.18619929453262701</v>
+        <v>0.13731060606060599</v>
       </c>
       <c r="E26">
-        <v>0.99050000000000005</v>
+        <v>-0.26169999999999999</v>
       </c>
       <c r="F26">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G26">
-        <v>13</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="H26" s="3">
+        <v>8.5768756449333103E-26</v>
       </c>
       <c r="I26" s="2">
-        <v>0.138774272945618</v>
-      </c>
-      <c r="J26" s="2">
-        <v>1.42248511219764E-2</v>
-      </c>
-      <c r="K26">
-        <v>9.0345551511280594E-3</v>
+        <v>0.10702179674634101</v>
+      </c>
+      <c r="J26">
+        <v>2.46527623646489E-2</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1.42167148599341E-2</v>
       </c>
       <c r="L26">
-        <v>0.18903761765992999</v>
+        <v>9.4613033540059E-3</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N26">
-        <v>1.4697071844254801</v>
+        <v>6.2535736506354898</v>
       </c>
       <c r="O26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="P26">
-        <v>28.155477964263898</v>
+        <v>85.039923647158304</v>
       </c>
       <c r="Q26">
-        <v>34.790597954538597</v>
+        <v>40.616198649449302</v>
       </c>
       <c r="R26" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="S26" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="T26" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="U26" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
-      <c r="D27" s="2">
-        <v>0.13731060606060599</v>
+      <c r="D27">
+        <v>-1.11394557823129E-2</v>
       </c>
       <c r="E27">
-        <v>-0.26169999999999999</v>
+        <v>-0.57130000000000003</v>
       </c>
       <c r="F27">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G27">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H27" s="3">
-        <v>8.5768756449333103E-26</v>
-      </c>
-      <c r="I27" s="2">
-        <v>0.10702179674634101</v>
-      </c>
-      <c r="J27">
-        <v>2.46527623646489E-2</v>
+        <v>2.7863227950841599E-27</v>
+      </c>
+      <c r="I27">
+        <v>8.6447560821216199E-2</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0.12517327876983</v>
       </c>
       <c r="K27" s="2">
-        <v>1.42167148599341E-2</v>
+        <v>0.14121348151844401</v>
       </c>
       <c r="L27">
-        <v>9.4613033540059E-3</v>
+        <v>0</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N27">
-        <v>6.2535736506354898</v>
+        <v>1.8545751068126199</v>
       </c>
       <c r="O27" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P27">
-        <v>85.039923647158304</v>
+        <v>28.643519994803398</v>
       </c>
       <c r="Q27">
-        <v>40.616198649449302</v>
+        <v>38.152513105483898</v>
       </c>
       <c r="R27" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="S27" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="T27" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+      <c r="U27" s="4">
+        <v>0.56962000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>192</v>
+        <v>118</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D28">
-        <v>-1.11394557823129E-2</v>
+        <v>-0.12779111508969901</v>
       </c>
       <c r="E28">
-        <v>-0.57130000000000003</v>
+        <v>0.83460000000000001</v>
       </c>
       <c r="F28">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G28">
-        <v>11</v>
-      </c>
-      <c r="H28" s="3">
-        <v>2.7863227950841599E-27</v>
-      </c>
-      <c r="I28">
-        <v>8.6447560821216199E-2</v>
-      </c>
-      <c r="J28" s="2">
-        <v>0.12517327876983</v>
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0.103742314472297</v>
+      </c>
+      <c r="J28">
+        <v>4.5967678566188899E-2</v>
       </c>
       <c r="K28" s="2">
-        <v>0.14121348151844401</v>
+        <v>0.110476865475701</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N28">
-        <v>1.8545751068126199</v>
+        <v>11.8451701246584</v>
       </c>
       <c r="O28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P28">
-        <v>28.643519994803398</v>
+        <v>73.064852120394605</v>
       </c>
       <c r="Q28">
-        <v>38.152513105483898</v>
+        <v>62.668641124363504</v>
       </c>
       <c r="R28" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S28" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="T28" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" ht="98" customHeight="1" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+      <c r="U28" s="4">
+        <v>0.41428599999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="C29">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D29">
-        <v>-0.12779111508969901</v>
+        <v>7.4761904761904696E-2</v>
       </c>
       <c r="E29">
-        <v>0.83460000000000001</v>
+        <v>0.91110000000000002</v>
       </c>
       <c r="F29">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G29">
-        <v>2</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="H29" s="3">
+        <v>2.0796251934845199E-25</v>
       </c>
       <c r="I29" s="2">
-        <v>0.103742314472297</v>
+        <v>0.20754097188185999</v>
       </c>
       <c r="J29">
-        <v>4.5967678566188899E-2</v>
-      </c>
-      <c r="K29" s="2">
-        <v>0.110476865475701</v>
+        <v>1.9788936545675098E-3</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N29">
-        <v>11.8451701246584</v>
+        <v>2.3821855975091899</v>
       </c>
       <c r="O29" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="P29">
-        <v>73.064852120394605</v>
+        <v>47.044304324094902</v>
       </c>
       <c r="Q29">
-        <v>62.668641124363504</v>
+        <v>45.7565054005577</v>
       </c>
       <c r="R29" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="S29" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="T29" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" ht="98" customHeight="1" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="U29" s="4">
+        <v>0.57692299999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>141</v>
+        <v>260</v>
       </c>
       <c r="C30">
-        <v>4</v>
-      </c>
-      <c r="D30">
-        <v>7.4761904761904696E-2</v>
+        <v>1</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.12037037037037</v>
       </c>
       <c r="E30">
-        <v>0.91110000000000002</v>
+        <v>0.93459999999999999</v>
       </c>
       <c r="F30">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G30">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H30" s="3">
-        <v>2.0796251934845199E-25</v>
+        <v>4.61848471872474E-26</v>
       </c>
       <c r="I30" s="2">
-        <v>0.20754097188185999</v>
+        <v>0.20144783661354901</v>
       </c>
       <c r="J30">
-        <v>1.9788936545675098E-3</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>1.9865031533443599E-3</v>
       </c>
       <c r="L30">
         <v>0</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N30">
-        <v>2.3821855975091899</v>
+        <v>4.4104125019329601</v>
       </c>
       <c r="O30" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P30">
-        <v>47.044304324094902</v>
+        <v>104.299775343791</v>
       </c>
       <c r="Q30">
-        <v>45.7565054005577</v>
+        <v>34.938996223473701</v>
       </c>
       <c r="R30" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="S30" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="T30" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="U30" s="4">
+        <v>0.54411799999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>260</v>
+        <v>449</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" s="2">
-        <v>0.12037037037037</v>
+        <v>0.332861111111111</v>
       </c>
       <c r="E31">
-        <v>0.93459999999999999</v>
+        <v>0.9899</v>
       </c>
       <c r="F31">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G31">
-        <v>13</v>
-      </c>
-      <c r="H31" s="3">
-        <v>4.61848471872474E-26</v>
+        <v>29</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
       </c>
       <c r="I31" s="2">
-        <v>0.20144783661354901</v>
+        <v>0.32223962411849499</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31">
-        <v>1.9865031533443599E-3</v>
+        <v>0</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N31">
-        <v>4.4104125019329601</v>
+        <v>9.3871564262829992</v>
       </c>
       <c r="O31" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="P31">
-        <v>104.299775343791</v>
+        <v>71.489813857814497</v>
       </c>
       <c r="Q31">
-        <v>34.938996223473701</v>
+        <v>49.776269871672497</v>
       </c>
       <c r="R31" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="S31" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="T31" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="U31" s="4">
+        <v>0.55128200000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>449</v>
+        <v>74</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
-      <c r="D32" s="2">
-        <v>0.332861111111111</v>
+      <c r="D32">
+        <v>0.8</v>
       </c>
       <c r="E32">
-        <v>0.9899</v>
+        <v>0.9526</v>
       </c>
       <c r="F32">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="G32">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32" s="2">
-        <v>0.32223962411849499</v>
+        <v>5.8736621182788398E-2</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -9331,125 +9271,131 @@
         <v>0</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>7.0936684900506405E-2</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N32">
-        <v>9.3871564262829992</v>
+        <v>5.4881221571113397</v>
       </c>
       <c r="O32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="P32">
-        <v>71.489813857814497</v>
+        <v>93.545170350694903</v>
       </c>
       <c r="Q32">
-        <v>49.776269871672497</v>
+        <v>46.971113930686101</v>
       </c>
       <c r="R32" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="S32" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="T32" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+      <c r="U32" s="4">
+        <v>0.52777799999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33">
+        <v>185</v>
+      </c>
+      <c r="C33">
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <v>-5.5931855500820898E-3</v>
+      </c>
+      <c r="E33">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="F33">
+        <v>58</v>
+      </c>
+      <c r="G33">
+        <v>36</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1.6474072869792799E-27</v>
+      </c>
+      <c r="I33">
+        <v>4.0579892065110999E-2</v>
+      </c>
+      <c r="J33">
+        <v>6.0888337605280399E-3</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>0.8</v>
-      </c>
-      <c r="E33">
-        <v>0.9526</v>
-      </c>
-      <c r="F33">
-        <v>17</v>
-      </c>
-      <c r="G33">
-        <v>4</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33" s="2">
-        <v>5.8736621182788398E-2</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>7.0936684900506405E-2</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="N33">
-        <v>5.4881221571113397</v>
+        <v>3.62892593020434</v>
       </c>
       <c r="O33" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="P33">
-        <v>93.545170350694903</v>
+        <v>75.761329418259805</v>
       </c>
       <c r="Q33">
-        <v>46.971113930686101</v>
+        <v>64.293423359921604</v>
       </c>
       <c r="R33" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="S33" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="T33" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="U33" s="4">
+        <v>0.49315100000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>185</v>
+        <v>272</v>
       </c>
       <c r="C34">
-        <v>7</v>
-      </c>
-      <c r="D34">
-        <v>-5.5931855500820898E-3</v>
+        <v>1</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.17839781746031699</v>
       </c>
       <c r="E34">
-        <v>0.99299999999999999</v>
+        <v>0.99439999999999995</v>
       </c>
       <c r="F34">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="G34">
-        <v>36</v>
-      </c>
-      <c r="H34" s="3">
-        <v>1.6474072869792799E-27</v>
-      </c>
-      <c r="I34">
-        <v>4.0579892065110999E-2</v>
+        <v>20</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0.27312245690382198</v>
       </c>
       <c r="J34">
-        <v>6.0888337605280399E-3</v>
+        <v>0</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -9458,57 +9404,60 @@
         <v>0</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N34">
-        <v>3.62892593020434</v>
+        <v>5.7704477064952799</v>
       </c>
       <c r="O34" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="P34">
-        <v>75.761329418259805</v>
+        <v>88.980657017393199</v>
       </c>
       <c r="Q34">
-        <v>64.293423359921604</v>
+        <v>50.056005588016298</v>
       </c>
       <c r="R34" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="S34" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="T34" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+      <c r="U34" s="4">
+        <v>0.53246800000000005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>272</v>
+        <v>1</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
-      <c r="D35" s="2">
-        <v>0.17839781746031699</v>
+      <c r="D35">
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>0.99439999999999995</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>20</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35" s="2">
-        <v>0.27312245690382198</v>
+        <v>0</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0.58857608175554399</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -9520,302 +9469,317 @@
         <v>0</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="N35">
-        <v>5.7704477064952799</v>
+        <v>2.35746552586015</v>
       </c>
       <c r="O35" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="P35">
-        <v>88.980657017393199</v>
+        <v>19.708536050740001</v>
       </c>
       <c r="Q35">
-        <v>50.056005588016298</v>
+        <v>34.462898423029301</v>
       </c>
       <c r="R35" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="S35" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="T35" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+      <c r="U35" s="4">
+        <v>0.59154899999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>429</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
-      <c r="D36">
-        <v>0</v>
+      <c r="D36" s="2">
+        <v>0.12539992559523799</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>-0.97350000000000003</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36" s="2">
-        <v>0.58857608175554399</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0.30444682599577499</v>
       </c>
       <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
+        <v>5.5994446202306702E-2</v>
+      </c>
+      <c r="K36" s="2">
+        <v>2.0518597194299399E-2</v>
       </c>
       <c r="L36">
         <v>0</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="N36">
-        <v>2.35746552586015</v>
+        <v>8.6116045583363494</v>
       </c>
       <c r="O36" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P36">
-        <v>19.708536050740001</v>
+        <v>56.227235314090798</v>
       </c>
       <c r="Q36">
-        <v>34.462898423029301</v>
+        <v>41.179777856327902</v>
       </c>
       <c r="R36" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="S36" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="T36" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+      <c r="U36" s="4">
+        <v>0.61333300000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>429</v>
+        <v>614</v>
       </c>
       <c r="C37">
+        <v>35</v>
+      </c>
+      <c r="D37">
+        <v>7.2701683172874496E-2</v>
+      </c>
+      <c r="E37">
+        <v>0.99739999999999995</v>
+      </c>
+      <c r="F37">
+        <v>145</v>
+      </c>
+      <c r="G37">
+        <v>37</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0.76847959789584697</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N37">
+        <v>0.985668709177425</v>
+      </c>
+      <c r="O37" t="s">
+        <v>85</v>
+      </c>
+      <c r="P37">
+        <v>77.501542731782394</v>
+      </c>
+      <c r="Q37">
+        <v>51.804034486876503</v>
+      </c>
+      <c r="R37" t="s">
+        <v>218</v>
+      </c>
+      <c r="S37" t="s">
+        <v>219</v>
+      </c>
+      <c r="T37" t="s">
+        <v>220</v>
+      </c>
+      <c r="U37" s="4">
+        <v>0.52857100000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38">
+        <v>474</v>
+      </c>
+      <c r="C38">
         <v>1</v>
       </c>
-      <c r="D37" s="2">
-        <v>0.12539992559523799</v>
-      </c>
-      <c r="E37">
-        <v>-0.97350000000000003</v>
-      </c>
-      <c r="F37">
-        <v>46</v>
-      </c>
-      <c r="G37">
-        <v>17</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37" s="2">
-        <v>0.30444682599577499</v>
-      </c>
-      <c r="J37">
-        <v>5.5994446202306702E-2</v>
-      </c>
-      <c r="K37" s="2">
-        <v>2.0518597194299399E-2</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37" s="1" t="s">
+      <c r="D38" s="2">
+        <v>0.18232993197278899</v>
+      </c>
+      <c r="E38">
+        <v>0.97189999999999999</v>
+      </c>
+      <c r="F38">
+        <v>58</v>
+      </c>
+      <c r="G38">
+        <v>26</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0.19807281700604301</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0.420006673949055</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2">
+        <v>3.2756553821312498E-2</v>
+      </c>
+      <c r="M38" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="N37">
-        <v>8.6116045583363494</v>
-      </c>
-      <c r="O37" t="s">
-        <v>88</v>
-      </c>
-      <c r="P37">
-        <v>56.227235314090798</v>
-      </c>
-      <c r="Q37">
-        <v>41.179777856327902</v>
-      </c>
-      <c r="R37" t="s">
-        <v>217</v>
-      </c>
-      <c r="S37" t="s">
-        <v>218</v>
-      </c>
-      <c r="T37" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>614</v>
-      </c>
-      <c r="C38">
-        <v>35</v>
-      </c>
-      <c r="D38">
-        <v>7.2701683172874496E-2</v>
-      </c>
-      <c r="E38">
-        <v>0.99739999999999995</v>
-      </c>
-      <c r="F38">
-        <v>145</v>
-      </c>
-      <c r="G38">
-        <v>37</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0.76847959789584697</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="N38">
-        <v>0.985668709177425</v>
+        <v>5.6593721239147898</v>
       </c>
       <c r="O38" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P38">
-        <v>77.501542731782394</v>
+        <v>56.528665030061397</v>
       </c>
       <c r="Q38">
-        <v>51.804034486876503</v>
+        <v>39.501427618250901</v>
       </c>
       <c r="R38" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="S38" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="T38" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="U38" s="4">
+        <v>0.62666699999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>16</v>
       </c>
       <c r="B39">
-        <v>474</v>
+        <v>1</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
-      <c r="D39" s="2">
-        <v>0.18232993197278899</v>
+      <c r="D39">
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>0.97189999999999999</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>26</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39" s="2">
-        <v>0.19807281700604301</v>
-      </c>
-      <c r="J39" s="2">
-        <v>0.420006673949055</v>
+        <v>0</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0.58857608175554399</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
-      <c r="L39" s="2">
-        <v>3.2756553821312498E-2</v>
+      <c r="L39">
+        <v>0</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="N39">
-        <v>5.6593721239147898</v>
+        <v>2.82151956833013</v>
       </c>
       <c r="O39" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="P39">
-        <v>56.528665030061397</v>
+        <v>44.841165689474302</v>
       </c>
       <c r="Q39">
-        <v>39.501427618250901</v>
+        <v>38.855796787478397</v>
       </c>
       <c r="R39" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="S39" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="T39" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+      <c r="U39" s="4">
+        <v>0.52564100000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>17</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>424</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>6.72764511474188E-2</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>0.75280000000000002</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40" s="2">
-        <v>0.58857608175554399</v>
+        <v>26</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -9823,58 +9787,61 @@
       <c r="J40">
         <v>0</v>
       </c>
-      <c r="K40">
-        <v>0</v>
+      <c r="K40" s="2">
+        <v>0.85773616139669795</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>1.3969960268696399E-3</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="N40">
-        <v>2.82151956833013</v>
+        <v>3.4286398903095798</v>
       </c>
       <c r="O40" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P40">
-        <v>44.841165689474302</v>
+        <v>54.917675897699802</v>
       </c>
       <c r="Q40">
-        <v>38.855796787478397</v>
+        <v>38.7939821563075</v>
       </c>
       <c r="R40" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="S40" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="T40" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+      <c r="U40" s="4">
+        <v>0.50704199999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>18</v>
       </c>
       <c r="B41">
-        <v>424</v>
+        <v>251</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
-      <c r="D41">
-        <v>6.72764511474188E-2</v>
+      <c r="D41" s="2">
+        <v>0.15372807017543799</v>
       </c>
       <c r="E41">
-        <v>0.75280000000000002</v>
+        <v>0.94810000000000005</v>
       </c>
       <c r="F41">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="G41">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -9885,98 +9852,2907 @@
       <c r="J41">
         <v>0</v>
       </c>
-      <c r="K41" s="2">
-        <v>0.85773616139669795</v>
-      </c>
-      <c r="L41">
-        <v>1.3969960268696399E-3</v>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41" s="2">
+        <v>0.87821723974176802</v>
       </c>
       <c r="M41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N41">
+        <v>2.9787640722049602</v>
+      </c>
+      <c r="O41" t="s">
         <v>81</v>
       </c>
-      <c r="N41">
-        <v>3.4286398903095798</v>
-      </c>
-      <c r="O41" t="s">
-        <v>84</v>
-      </c>
       <c r="P41">
-        <v>54.917675897699802</v>
+        <v>94.665370972127505</v>
       </c>
       <c r="Q41">
-        <v>38.7939821563075</v>
+        <v>38.246374800310697</v>
       </c>
       <c r="R41" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="S41" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="T41" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>19</v>
-      </c>
-      <c r="B42">
-        <v>251</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42" s="2">
-        <v>0.15372807017543799</v>
-      </c>
-      <c r="E42">
-        <v>0.94810000000000005</v>
-      </c>
-      <c r="F42">
-        <v>40</v>
-      </c>
-      <c r="G42">
-        <v>16</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42" s="2">
-        <v>0.87821723974176802</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="N42">
-        <v>2.9787640722049602</v>
-      </c>
-      <c r="O42" t="s">
-        <v>83</v>
-      </c>
-      <c r="P42">
-        <v>94.665370972127505</v>
-      </c>
-      <c r="Q42">
-        <v>38.246374800310697</v>
-      </c>
-      <c r="R42" t="s">
         <v>232</v>
       </c>
-      <c r="S42" t="s">
-        <v>233</v>
-      </c>
-      <c r="T42" t="s">
-        <v>234</v>
-      </c>
+      <c r="U41" s="4">
+        <v>0.40845100000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U42" s="5"/>
+    </row>
+    <row r="43" spans="1:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U43" s="5"/>
+    </row>
+    <row r="44" spans="1:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U44" s="5"/>
+    </row>
+    <row r="45" spans="1:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U45" s="5"/>
+    </row>
+    <row r="46" spans="1:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U46" s="5"/>
+    </row>
+    <row r="47" spans="1:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U47" s="5"/>
+    </row>
+    <row r="48" spans="1:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U48" s="5"/>
+    </row>
+    <row r="49" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U49" s="5"/>
+    </row>
+    <row r="50" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U50" s="5"/>
+    </row>
+    <row r="51" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U51" s="5"/>
+    </row>
+    <row r="52" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U52" s="5"/>
+    </row>
+    <row r="53" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U53" s="5"/>
+    </row>
+    <row r="54" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U54" s="5"/>
+    </row>
+    <row r="55" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U55" s="5"/>
+    </row>
+    <row r="56" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U56" s="5"/>
+    </row>
+    <row r="57" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U57" s="5"/>
+    </row>
+    <row r="58" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U58" s="5"/>
+    </row>
+    <row r="59" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U59" s="5"/>
+    </row>
+    <row r="60" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U60" s="5"/>
+    </row>
+    <row r="61" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U61" s="5"/>
+    </row>
+    <row r="62" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U62" s="5"/>
+    </row>
+    <row r="63" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U63" s="5"/>
+    </row>
+    <row r="64" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U64" s="5"/>
+    </row>
+    <row r="65" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U65" s="5"/>
+    </row>
+    <row r="66" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U66" s="5"/>
+    </row>
+    <row r="67" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U67" s="5"/>
+    </row>
+    <row r="68" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U68" s="5"/>
+    </row>
+    <row r="69" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U69" s="5"/>
+    </row>
+    <row r="70" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U70" s="5"/>
+    </row>
+    <row r="71" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U71" s="5"/>
+    </row>
+    <row r="72" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U72" s="5"/>
+    </row>
+    <row r="73" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U73" s="5"/>
+    </row>
+    <row r="74" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U74" s="5"/>
+    </row>
+    <row r="75" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U75" s="5"/>
+    </row>
+    <row r="76" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U76" s="5"/>
+    </row>
+    <row r="77" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U77" s="5"/>
+    </row>
+    <row r="78" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U78" s="5"/>
+    </row>
+    <row r="79" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U79" s="5"/>
+    </row>
+    <row r="80" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U80" s="5"/>
+    </row>
+    <row r="81" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U81" s="5"/>
+    </row>
+    <row r="82" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U82" s="5"/>
+    </row>
+    <row r="83" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U83" s="5"/>
+    </row>
+    <row r="84" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U84" s="5"/>
+    </row>
+    <row r="85" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U85" s="5"/>
+    </row>
+    <row r="86" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U86" s="5"/>
+    </row>
+    <row r="87" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U87" s="5"/>
+    </row>
+    <row r="88" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U88" s="5"/>
+    </row>
+    <row r="89" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U89" s="5"/>
+    </row>
+    <row r="90" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U90" s="5"/>
+    </row>
+    <row r="91" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U91" s="5"/>
+    </row>
+    <row r="92" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U92" s="5"/>
+    </row>
+    <row r="93" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U93" s="5"/>
+    </row>
+    <row r="94" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U94" s="5"/>
+    </row>
+    <row r="95" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U95" s="5"/>
+    </row>
+    <row r="96" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U96" s="5"/>
+    </row>
+    <row r="97" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U97" s="5"/>
+    </row>
+    <row r="98" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U98" s="5"/>
+    </row>
+    <row r="99" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U99" s="5"/>
+    </row>
+    <row r="100" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U100" s="5"/>
+    </row>
+    <row r="101" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U101" s="5"/>
+    </row>
+    <row r="102" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U102" s="5"/>
+    </row>
+    <row r="103" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U103" s="5"/>
+    </row>
+    <row r="104" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U104" s="5"/>
+    </row>
+    <row r="105" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U105" s="5"/>
+    </row>
+    <row r="106" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U106" s="5"/>
+    </row>
+    <row r="107" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U107" s="5"/>
+    </row>
+    <row r="108" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U108" s="5"/>
+    </row>
+    <row r="109" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U109" s="5"/>
+    </row>
+    <row r="110" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U110" s="5"/>
+    </row>
+    <row r="111" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U111" s="5"/>
+    </row>
+    <row r="112" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U112" s="5"/>
+    </row>
+    <row r="113" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U113" s="5"/>
+    </row>
+    <row r="114" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U114" s="5"/>
+    </row>
+    <row r="115" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U115" s="5"/>
+    </row>
+    <row r="116" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U116" s="5"/>
+    </row>
+    <row r="117" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U117" s="5"/>
+    </row>
+    <row r="118" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U118" s="5"/>
+    </row>
+    <row r="119" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U119" s="5"/>
+    </row>
+    <row r="120" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U120" s="5"/>
+    </row>
+    <row r="121" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U121" s="5"/>
+    </row>
+    <row r="122" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U122" s="5"/>
+    </row>
+    <row r="123" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U123" s="5"/>
+    </row>
+    <row r="124" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U124" s="5"/>
+    </row>
+    <row r="125" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U125" s="5"/>
+    </row>
+    <row r="126" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U126" s="5"/>
+    </row>
+    <row r="127" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U127" s="5"/>
+    </row>
+    <row r="128" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U128" s="5"/>
+    </row>
+    <row r="129" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U129" s="5"/>
+    </row>
+    <row r="130" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U130" s="5"/>
+    </row>
+    <row r="131" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U131" s="5"/>
+    </row>
+    <row r="132" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U132" s="5"/>
+    </row>
+    <row r="133" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U133" s="5"/>
+    </row>
+    <row r="134" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U134" s="5"/>
+    </row>
+    <row r="135" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U135" s="5"/>
+    </row>
+    <row r="136" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U136" s="5"/>
+    </row>
+    <row r="137" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U137" s="5"/>
+    </row>
+    <row r="138" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U138" s="5"/>
+    </row>
+    <row r="139" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U139" s="5"/>
+    </row>
+    <row r="140" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U140" s="5"/>
+    </row>
+    <row r="141" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U141" s="5"/>
+    </row>
+    <row r="142" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U142" s="5"/>
+    </row>
+    <row r="143" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U143" s="5"/>
+    </row>
+    <row r="144" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U144" s="5"/>
+    </row>
+    <row r="145" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U145" s="5"/>
+    </row>
+    <row r="146" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U146" s="5"/>
+    </row>
+    <row r="147" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U147" s="5"/>
+    </row>
+    <row r="148" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U148" s="5"/>
+    </row>
+    <row r="149" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U149" s="5"/>
+    </row>
+    <row r="150" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U150" s="5"/>
+    </row>
+    <row r="151" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U151" s="5"/>
+    </row>
+    <row r="152" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U152" s="5"/>
+    </row>
+    <row r="153" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U153" s="5"/>
+    </row>
+    <row r="154" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U154" s="5"/>
+    </row>
+    <row r="155" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U155" s="5"/>
+    </row>
+    <row r="156" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U156" s="5"/>
+    </row>
+    <row r="157" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U157" s="5"/>
+    </row>
+    <row r="158" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U158" s="5"/>
+    </row>
+    <row r="159" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U159" s="5"/>
+    </row>
+    <row r="160" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U160" s="5"/>
+    </row>
+    <row r="161" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U161" s="5"/>
+    </row>
+    <row r="162" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U162" s="5"/>
+    </row>
+    <row r="163" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U163" s="5"/>
+    </row>
+    <row r="164" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U164" s="5"/>
+    </row>
+    <row r="165" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U165" s="5"/>
+    </row>
+    <row r="166" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U166" s="5"/>
+    </row>
+    <row r="167" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U167" s="5"/>
+    </row>
+    <row r="168" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U168" s="5"/>
+    </row>
+    <row r="169" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U169" s="5"/>
+    </row>
+    <row r="170" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U170" s="5"/>
+    </row>
+    <row r="171" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U171" s="5"/>
+    </row>
+    <row r="172" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U172" s="5"/>
+    </row>
+    <row r="173" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U173" s="5"/>
+    </row>
+    <row r="174" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U174" s="5"/>
+    </row>
+    <row r="175" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U175" s="5"/>
+    </row>
+    <row r="176" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U176" s="5"/>
+    </row>
+    <row r="177" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U177" s="5"/>
+    </row>
+    <row r="178" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U178" s="5"/>
+    </row>
+    <row r="179" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U179" s="5"/>
+    </row>
+    <row r="180" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U180" s="5"/>
+    </row>
+    <row r="181" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U181" s="5"/>
+    </row>
+    <row r="182" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U182" s="5"/>
+    </row>
+    <row r="183" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U183" s="5"/>
+    </row>
+    <row r="184" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U184" s="5"/>
+    </row>
+    <row r="185" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U185" s="5"/>
+    </row>
+    <row r="186" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U186" s="5"/>
+    </row>
+    <row r="187" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U187" s="5"/>
+    </row>
+    <row r="188" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U188" s="5"/>
+    </row>
+    <row r="189" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U189" s="5"/>
+    </row>
+    <row r="190" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U190" s="5"/>
+    </row>
+    <row r="191" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U191" s="5"/>
+    </row>
+    <row r="192" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U192" s="5"/>
+    </row>
+    <row r="193" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U193" s="5"/>
+    </row>
+    <row r="194" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U194" s="5"/>
+    </row>
+    <row r="195" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U195" s="5"/>
+    </row>
+    <row r="196" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U196" s="5"/>
+    </row>
+    <row r="197" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U197" s="5"/>
+    </row>
+    <row r="198" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U198" s="5"/>
+    </row>
+    <row r="199" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U199" s="5"/>
+    </row>
+    <row r="200" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U200" s="5"/>
+    </row>
+    <row r="201" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U201" s="5"/>
+    </row>
+    <row r="202" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U202" s="5"/>
+    </row>
+    <row r="203" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U203" s="5"/>
+    </row>
+    <row r="204" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U204" s="5"/>
+    </row>
+    <row r="205" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U205" s="5"/>
+    </row>
+    <row r="206" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U206" s="5"/>
+    </row>
+    <row r="207" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U207" s="5"/>
+    </row>
+    <row r="208" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U208" s="5"/>
+    </row>
+    <row r="209" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U209" s="5"/>
+    </row>
+    <row r="210" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U210" s="5"/>
+    </row>
+    <row r="211" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U211" s="5"/>
+    </row>
+    <row r="212" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U212" s="5"/>
+    </row>
+    <row r="213" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U213" s="5"/>
+    </row>
+    <row r="214" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U214" s="5"/>
+    </row>
+    <row r="215" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U215" s="5"/>
+    </row>
+    <row r="216" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U216" s="5"/>
+    </row>
+    <row r="217" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U217" s="5"/>
+    </row>
+    <row r="218" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U218" s="5"/>
+    </row>
+    <row r="219" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U219" s="5"/>
+    </row>
+    <row r="220" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U220" s="5"/>
+    </row>
+    <row r="221" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U221" s="5"/>
+    </row>
+    <row r="222" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U222" s="5"/>
+    </row>
+    <row r="223" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U223" s="5"/>
+    </row>
+    <row r="224" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U224" s="5"/>
+    </row>
+    <row r="225" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U225" s="5"/>
+    </row>
+    <row r="226" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U226" s="5"/>
+    </row>
+    <row r="227" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U227" s="5"/>
+    </row>
+    <row r="228" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U228" s="5"/>
+    </row>
+    <row r="229" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U229" s="5"/>
+    </row>
+    <row r="230" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U230" s="5"/>
+    </row>
+    <row r="231" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U231" s="5"/>
+    </row>
+    <row r="232" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U232" s="5"/>
+    </row>
+    <row r="233" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U233" s="5"/>
+    </row>
+    <row r="234" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U234" s="5"/>
+    </row>
+    <row r="235" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U235" s="5"/>
+    </row>
+    <row r="236" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U236" s="5"/>
+    </row>
+    <row r="237" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U237" s="5"/>
+    </row>
+    <row r="238" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U238" s="5"/>
+    </row>
+    <row r="239" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U239" s="5"/>
+    </row>
+    <row r="240" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U240" s="5"/>
+    </row>
+    <row r="241" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U241" s="5"/>
+    </row>
+    <row r="242" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U242" s="5"/>
+    </row>
+    <row r="243" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U243" s="5"/>
+    </row>
+    <row r="244" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U244" s="5"/>
+    </row>
+    <row r="245" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U245" s="5"/>
+    </row>
+    <row r="246" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U246" s="5"/>
+    </row>
+    <row r="247" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U247" s="5"/>
+    </row>
+    <row r="248" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U248" s="5"/>
+    </row>
+    <row r="249" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U249" s="5"/>
+    </row>
+    <row r="250" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U250" s="5"/>
+    </row>
+    <row r="251" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U251" s="5"/>
+    </row>
+    <row r="252" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U252" s="5"/>
+    </row>
+    <row r="253" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U253" s="5"/>
+    </row>
+    <row r="254" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U254" s="5"/>
+    </row>
+    <row r="255" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U255" s="5"/>
+    </row>
+    <row r="256" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U256" s="5"/>
+    </row>
+    <row r="257" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U257" s="5"/>
+    </row>
+    <row r="258" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U258" s="5"/>
+    </row>
+    <row r="259" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U259" s="5"/>
+    </row>
+    <row r="260" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U260" s="5"/>
+    </row>
+    <row r="261" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U261" s="5"/>
+    </row>
+    <row r="262" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U262" s="5"/>
+    </row>
+    <row r="263" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U263" s="5"/>
+    </row>
+    <row r="264" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U264" s="5"/>
+    </row>
+    <row r="265" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U265" s="5"/>
+    </row>
+    <row r="266" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U266" s="5"/>
+    </row>
+    <row r="267" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U267" s="5"/>
+    </row>
+    <row r="268" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U268" s="5"/>
+    </row>
+    <row r="269" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U269" s="5"/>
+    </row>
+    <row r="270" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U270" s="5"/>
+    </row>
+    <row r="271" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U271" s="5"/>
+    </row>
+    <row r="272" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U272" s="5"/>
+    </row>
+    <row r="273" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U273" s="5"/>
+    </row>
+    <row r="274" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U274" s="5"/>
+    </row>
+    <row r="275" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U275" s="5"/>
+    </row>
+    <row r="276" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U276" s="5"/>
+    </row>
+    <row r="277" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U277" s="5"/>
+    </row>
+    <row r="278" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U278" s="5"/>
+    </row>
+    <row r="279" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U279" s="5"/>
+    </row>
+    <row r="280" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U280" s="5"/>
+    </row>
+    <row r="281" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U281" s="5"/>
+    </row>
+    <row r="282" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U282" s="5"/>
+    </row>
+    <row r="283" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U283" s="5"/>
+    </row>
+    <row r="284" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U284" s="5"/>
+    </row>
+    <row r="285" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U285" s="5"/>
+    </row>
+    <row r="286" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U286" s="5"/>
+    </row>
+    <row r="287" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U287" s="5"/>
+    </row>
+    <row r="288" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U288" s="5"/>
+    </row>
+    <row r="289" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U289" s="5"/>
+    </row>
+    <row r="290" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U290" s="5"/>
+    </row>
+    <row r="291" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U291" s="5"/>
+    </row>
+    <row r="292" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U292" s="5"/>
+    </row>
+    <row r="293" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U293" s="5"/>
+    </row>
+    <row r="294" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U294" s="5"/>
+    </row>
+    <row r="295" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U295" s="5"/>
+    </row>
+    <row r="296" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U296" s="5"/>
+    </row>
+    <row r="297" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U297" s="5"/>
+    </row>
+    <row r="298" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U298" s="5"/>
+    </row>
+    <row r="299" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U299" s="5"/>
+    </row>
+    <row r="300" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U300" s="5"/>
+    </row>
+    <row r="301" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U301" s="5"/>
+    </row>
+    <row r="302" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U302" s="5"/>
+    </row>
+    <row r="303" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U303" s="5"/>
+    </row>
+    <row r="304" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U304" s="5"/>
+    </row>
+    <row r="305" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U305" s="5"/>
+    </row>
+    <row r="306" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U306" s="5"/>
+    </row>
+    <row r="307" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U307" s="5"/>
+    </row>
+    <row r="308" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U308" s="5"/>
+    </row>
+    <row r="309" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U309" s="5"/>
+    </row>
+    <row r="310" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U310" s="5"/>
+    </row>
+    <row r="311" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U311" s="5"/>
+    </row>
+    <row r="312" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U312" s="5"/>
+    </row>
+    <row r="313" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U313" s="5"/>
+    </row>
+    <row r="314" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U314" s="5"/>
+    </row>
+    <row r="315" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U315" s="5"/>
+    </row>
+    <row r="316" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U316" s="5"/>
+    </row>
+    <row r="317" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U317" s="5"/>
+    </row>
+    <row r="318" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U318" s="5"/>
+    </row>
+    <row r="319" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U319" s="5"/>
+    </row>
+    <row r="320" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U320" s="5"/>
+    </row>
+    <row r="321" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U321" s="5"/>
+    </row>
+    <row r="322" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U322" s="5"/>
+    </row>
+    <row r="323" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U323" s="5"/>
+    </row>
+    <row r="324" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U324" s="5"/>
+    </row>
+    <row r="325" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U325" s="5"/>
+    </row>
+    <row r="326" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U326" s="5"/>
+    </row>
+    <row r="327" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U327" s="5"/>
+    </row>
+    <row r="328" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U328" s="5"/>
+    </row>
+    <row r="329" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U329" s="5"/>
+    </row>
+    <row r="330" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U330" s="5"/>
+    </row>
+    <row r="331" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U331" s="5"/>
+    </row>
+    <row r="332" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U332" s="5"/>
+    </row>
+    <row r="333" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U333" s="5"/>
+    </row>
+    <row r="334" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U334" s="5"/>
+    </row>
+    <row r="335" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U335" s="5"/>
+    </row>
+    <row r="336" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U336" s="5"/>
+    </row>
+    <row r="337" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U337" s="5"/>
+    </row>
+    <row r="338" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U338" s="5"/>
+    </row>
+    <row r="339" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U339" s="5"/>
+    </row>
+    <row r="340" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U340" s="5"/>
+    </row>
+    <row r="341" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U341" s="5"/>
+    </row>
+    <row r="342" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U342" s="5"/>
+    </row>
+    <row r="343" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U343" s="5"/>
+    </row>
+    <row r="344" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U344" s="5"/>
+    </row>
+    <row r="345" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U345" s="5"/>
+    </row>
+    <row r="346" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U346" s="5"/>
+    </row>
+    <row r="347" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U347" s="5"/>
+    </row>
+    <row r="348" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U348" s="5"/>
+    </row>
+    <row r="349" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U349" s="5"/>
+    </row>
+    <row r="350" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U350" s="5"/>
+    </row>
+    <row r="351" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U351" s="5"/>
+    </row>
+    <row r="352" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U352" s="5"/>
+    </row>
+    <row r="353" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U353" s="5"/>
+    </row>
+    <row r="354" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U354" s="5"/>
+    </row>
+    <row r="355" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U355" s="5"/>
+    </row>
+    <row r="356" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U356" s="5"/>
+    </row>
+    <row r="357" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U357" s="5"/>
+    </row>
+    <row r="358" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U358" s="5"/>
+    </row>
+    <row r="359" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U359" s="5"/>
+    </row>
+    <row r="360" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U360" s="5"/>
+    </row>
+    <row r="361" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U361" s="5"/>
+    </row>
+    <row r="362" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U362" s="5"/>
+    </row>
+    <row r="363" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U363" s="5"/>
+    </row>
+    <row r="364" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U364" s="5"/>
+    </row>
+    <row r="365" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U365" s="5"/>
+    </row>
+    <row r="366" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U366" s="5"/>
+    </row>
+    <row r="367" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U367" s="5"/>
+    </row>
+    <row r="368" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U368" s="5"/>
+    </row>
+    <row r="369" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U369" s="5"/>
+    </row>
+    <row r="370" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U370" s="5"/>
+    </row>
+    <row r="371" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U371" s="5"/>
+    </row>
+    <row r="372" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U372" s="5"/>
+    </row>
+    <row r="373" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U373" s="5"/>
+    </row>
+    <row r="374" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U374" s="5"/>
+    </row>
+    <row r="375" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U375" s="5"/>
+    </row>
+    <row r="376" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U376" s="5"/>
+    </row>
+    <row r="377" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U377" s="5"/>
+    </row>
+    <row r="378" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U378" s="5"/>
+    </row>
+    <row r="379" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U379" s="5"/>
+    </row>
+    <row r="380" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U380" s="5"/>
+    </row>
+    <row r="381" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U381" s="5"/>
+    </row>
+    <row r="382" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U382" s="5"/>
+    </row>
+    <row r="383" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U383" s="5"/>
+    </row>
+    <row r="384" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U384" s="5"/>
+    </row>
+    <row r="385" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U385" s="5"/>
+    </row>
+    <row r="386" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U386" s="5"/>
+    </row>
+    <row r="387" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U387" s="5"/>
+    </row>
+    <row r="388" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U388" s="5"/>
+    </row>
+    <row r="389" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U389" s="5"/>
+    </row>
+    <row r="390" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U390" s="5"/>
+    </row>
+    <row r="391" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U391" s="5"/>
+    </row>
+    <row r="392" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U392" s="5"/>
+    </row>
+    <row r="393" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U393" s="5"/>
+    </row>
+    <row r="394" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U394" s="5"/>
+    </row>
+    <row r="395" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U395" s="5"/>
+    </row>
+    <row r="396" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U396" s="5"/>
+    </row>
+    <row r="397" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U397" s="5"/>
+    </row>
+    <row r="398" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U398" s="5"/>
+    </row>
+    <row r="399" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U399" s="5"/>
+    </row>
+    <row r="400" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U400" s="5"/>
+    </row>
+    <row r="401" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U401" s="5"/>
+    </row>
+    <row r="402" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U402" s="5"/>
+    </row>
+    <row r="403" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U403" s="5"/>
+    </row>
+    <row r="404" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U404" s="5"/>
+    </row>
+    <row r="405" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U405" s="5"/>
+    </row>
+    <row r="406" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U406" s="5"/>
+    </row>
+    <row r="407" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U407" s="5"/>
+    </row>
+    <row r="408" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U408" s="5"/>
+    </row>
+    <row r="409" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U409" s="5"/>
+    </row>
+    <row r="410" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U410" s="5"/>
+    </row>
+    <row r="411" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U411" s="5"/>
+    </row>
+    <row r="412" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U412" s="5"/>
+    </row>
+    <row r="413" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U413" s="5"/>
+    </row>
+    <row r="414" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U414" s="5"/>
+    </row>
+    <row r="415" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U415" s="5"/>
+    </row>
+    <row r="416" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U416" s="5"/>
+    </row>
+    <row r="417" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U417" s="5"/>
+    </row>
+    <row r="418" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U418" s="5"/>
+    </row>
+    <row r="419" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U419" s="5"/>
+    </row>
+    <row r="420" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U420" s="5"/>
+    </row>
+    <row r="421" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U421" s="5"/>
+    </row>
+    <row r="422" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U422" s="5"/>
+    </row>
+    <row r="423" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U423" s="5"/>
+    </row>
+    <row r="424" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U424" s="5"/>
+    </row>
+    <row r="425" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U425" s="5"/>
+    </row>
+    <row r="426" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U426" s="5"/>
+    </row>
+    <row r="427" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U427" s="5"/>
+    </row>
+    <row r="428" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U428" s="5"/>
+    </row>
+    <row r="429" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U429" s="5"/>
+    </row>
+    <row r="430" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U430" s="5"/>
+    </row>
+    <row r="431" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U431" s="5"/>
+    </row>
+    <row r="432" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U432" s="5"/>
+    </row>
+    <row r="433" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U433" s="5"/>
+    </row>
+    <row r="434" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U434" s="5"/>
+    </row>
+    <row r="435" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U435" s="5"/>
+    </row>
+    <row r="436" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U436" s="5"/>
+    </row>
+    <row r="437" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U437" s="5"/>
+    </row>
+    <row r="438" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U438" s="5"/>
+    </row>
+    <row r="439" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U439" s="5"/>
+    </row>
+    <row r="440" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U440" s="5"/>
+    </row>
+    <row r="441" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U441" s="5"/>
+    </row>
+    <row r="442" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U442" s="5"/>
+    </row>
+    <row r="443" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U443" s="5"/>
+    </row>
+    <row r="444" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U444" s="5"/>
+    </row>
+    <row r="445" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U445" s="5"/>
+    </row>
+    <row r="446" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U446" s="5"/>
+    </row>
+    <row r="447" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U447" s="5"/>
+    </row>
+    <row r="448" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U448" s="5"/>
+    </row>
+    <row r="449" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U449" s="5"/>
+    </row>
+    <row r="450" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U450" s="5"/>
+    </row>
+    <row r="451" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U451" s="5"/>
+    </row>
+    <row r="452" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U452" s="5"/>
+    </row>
+    <row r="453" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U453" s="5"/>
+    </row>
+    <row r="454" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U454" s="5"/>
+    </row>
+    <row r="455" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U455" s="5"/>
+    </row>
+    <row r="456" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U456" s="5"/>
+    </row>
+    <row r="457" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U457" s="5"/>
+    </row>
+    <row r="458" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U458" s="5"/>
+    </row>
+    <row r="459" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U459" s="5"/>
+    </row>
+    <row r="460" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U460" s="5"/>
+    </row>
+    <row r="461" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U461" s="5"/>
+    </row>
+    <row r="462" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U462" s="5"/>
+    </row>
+    <row r="463" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U463" s="5"/>
+    </row>
+    <row r="464" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U464" s="5"/>
+    </row>
+    <row r="465" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U465" s="5"/>
+    </row>
+    <row r="466" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U466" s="5"/>
+    </row>
+    <row r="467" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U467" s="5"/>
+    </row>
+    <row r="468" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U468" s="5"/>
+    </row>
+    <row r="469" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U469" s="5"/>
+    </row>
+    <row r="470" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U470" s="5"/>
+    </row>
+    <row r="471" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U471" s="5"/>
+    </row>
+    <row r="472" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U472" s="5"/>
+    </row>
+    <row r="473" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U473" s="5"/>
+    </row>
+    <row r="474" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U474" s="5"/>
+    </row>
+    <row r="475" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U475" s="5"/>
+    </row>
+    <row r="476" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U476" s="5"/>
+    </row>
+    <row r="477" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U477" s="5"/>
+    </row>
+    <row r="478" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U478" s="5"/>
+    </row>
+    <row r="479" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U479" s="5"/>
+    </row>
+    <row r="480" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U480" s="5"/>
+    </row>
+    <row r="481" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U481" s="5"/>
+    </row>
+    <row r="482" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U482" s="5"/>
+    </row>
+    <row r="483" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U483" s="5"/>
+    </row>
+    <row r="484" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U484" s="5"/>
+    </row>
+    <row r="485" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U485" s="5"/>
+    </row>
+    <row r="486" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U486" s="5"/>
+    </row>
+    <row r="487" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U487" s="5"/>
+    </row>
+    <row r="488" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U488" s="5"/>
+    </row>
+    <row r="489" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U489" s="5"/>
+    </row>
+    <row r="490" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U490" s="5"/>
+    </row>
+    <row r="491" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U491" s="5"/>
+    </row>
+    <row r="492" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U492" s="5"/>
+    </row>
+    <row r="493" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U493" s="5"/>
+    </row>
+    <row r="494" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U494" s="5"/>
+    </row>
+    <row r="495" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U495" s="5"/>
+    </row>
+    <row r="496" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U496" s="5"/>
+    </row>
+    <row r="497" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U497" s="5"/>
+    </row>
+    <row r="498" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U498" s="5"/>
+    </row>
+    <row r="499" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U499" s="5"/>
+    </row>
+    <row r="500" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U500" s="5"/>
+    </row>
+    <row r="501" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U501" s="5"/>
+    </row>
+    <row r="502" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U502" s="5"/>
+    </row>
+    <row r="503" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U503" s="5"/>
+    </row>
+    <row r="504" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U504" s="5"/>
+    </row>
+    <row r="505" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U505" s="5"/>
+    </row>
+    <row r="506" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U506" s="5"/>
+    </row>
+    <row r="507" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U507" s="5"/>
+    </row>
+    <row r="508" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U508" s="5"/>
+    </row>
+    <row r="509" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U509" s="5"/>
+    </row>
+    <row r="510" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U510" s="5"/>
+    </row>
+    <row r="511" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U511" s="5"/>
+    </row>
+    <row r="512" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U512" s="5"/>
+    </row>
+    <row r="513" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U513" s="5"/>
+    </row>
+    <row r="514" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U514" s="5"/>
+    </row>
+    <row r="515" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U515" s="5"/>
+    </row>
+    <row r="516" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U516" s="5"/>
+    </row>
+    <row r="517" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U517" s="5"/>
+    </row>
+    <row r="518" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U518" s="5"/>
+    </row>
+    <row r="519" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U519" s="5"/>
+    </row>
+    <row r="520" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U520" s="5"/>
+    </row>
+    <row r="521" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U521" s="5"/>
+    </row>
+    <row r="522" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U522" s="5"/>
+    </row>
+    <row r="523" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U523" s="5"/>
+    </row>
+    <row r="524" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U524" s="5"/>
+    </row>
+    <row r="525" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U525" s="5"/>
+    </row>
+    <row r="526" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U526" s="5"/>
+    </row>
+    <row r="527" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U527" s="5"/>
+    </row>
+    <row r="528" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U528" s="5"/>
+    </row>
+    <row r="529" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U529" s="5"/>
+    </row>
+    <row r="530" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U530" s="5"/>
+    </row>
+    <row r="531" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U531" s="5"/>
+    </row>
+    <row r="532" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U532" s="5"/>
+    </row>
+    <row r="533" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U533" s="5"/>
+    </row>
+    <row r="534" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U534" s="5"/>
+    </row>
+    <row r="535" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U535" s="5"/>
+    </row>
+    <row r="536" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U536" s="5"/>
+    </row>
+    <row r="537" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U537" s="5"/>
+    </row>
+    <row r="538" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U538" s="5"/>
+    </row>
+    <row r="539" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U539" s="5"/>
+    </row>
+    <row r="540" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U540" s="5"/>
+    </row>
+    <row r="541" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U541" s="5"/>
+    </row>
+    <row r="542" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U542" s="5"/>
+    </row>
+    <row r="543" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U543" s="5"/>
+    </row>
+    <row r="544" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U544" s="5"/>
+    </row>
+    <row r="545" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U545" s="5"/>
+    </row>
+    <row r="546" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U546" s="5"/>
+    </row>
+    <row r="547" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U547" s="5"/>
+    </row>
+    <row r="548" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U548" s="5"/>
+    </row>
+    <row r="549" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U549" s="5"/>
+    </row>
+    <row r="550" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U550" s="5"/>
+    </row>
+    <row r="551" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U551" s="5"/>
+    </row>
+    <row r="552" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U552" s="5"/>
+    </row>
+    <row r="553" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U553" s="5"/>
+    </row>
+    <row r="554" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U554" s="5"/>
+    </row>
+    <row r="555" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U555" s="5"/>
+    </row>
+    <row r="556" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U556" s="5"/>
+    </row>
+    <row r="557" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U557" s="5"/>
+    </row>
+    <row r="558" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U558" s="5"/>
+    </row>
+    <row r="559" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U559" s="5"/>
+    </row>
+    <row r="560" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U560" s="5"/>
+    </row>
+    <row r="561" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U561" s="5"/>
+    </row>
+    <row r="562" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U562" s="5"/>
+    </row>
+    <row r="563" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U563" s="5"/>
+    </row>
+    <row r="564" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U564" s="5"/>
+    </row>
+    <row r="565" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U565" s="5"/>
+    </row>
+    <row r="566" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U566" s="5"/>
+    </row>
+    <row r="567" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U567" s="5"/>
+    </row>
+    <row r="568" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U568" s="5"/>
+    </row>
+    <row r="569" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U569" s="5"/>
+    </row>
+    <row r="570" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U570" s="5"/>
+    </row>
+    <row r="571" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U571" s="5"/>
+    </row>
+    <row r="572" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U572" s="5"/>
+    </row>
+    <row r="573" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U573" s="5"/>
+    </row>
+    <row r="574" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U574" s="5"/>
+    </row>
+    <row r="575" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U575" s="5"/>
+    </row>
+    <row r="576" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U576" s="5"/>
+    </row>
+    <row r="577" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U577" s="5"/>
+    </row>
+    <row r="578" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U578" s="5"/>
+    </row>
+    <row r="579" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U579" s="5"/>
+    </row>
+    <row r="580" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U580" s="5"/>
+    </row>
+    <row r="581" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U581" s="5"/>
+    </row>
+    <row r="582" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U582" s="5"/>
+    </row>
+    <row r="583" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U583" s="5"/>
+    </row>
+    <row r="584" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U584" s="5"/>
+    </row>
+    <row r="585" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U585" s="5"/>
+    </row>
+    <row r="586" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U586" s="5"/>
+    </row>
+    <row r="587" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U587" s="5"/>
+    </row>
+    <row r="588" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U588" s="5"/>
+    </row>
+    <row r="589" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U589" s="5"/>
+    </row>
+    <row r="590" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U590" s="5"/>
+    </row>
+    <row r="591" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U591" s="5"/>
+    </row>
+    <row r="592" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U592" s="5"/>
+    </row>
+    <row r="593" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U593" s="5"/>
+    </row>
+    <row r="594" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U594" s="5"/>
+    </row>
+    <row r="595" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U595" s="5"/>
+    </row>
+    <row r="596" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U596" s="5"/>
+    </row>
+    <row r="597" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U597" s="5"/>
+    </row>
+    <row r="598" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U598" s="5"/>
+    </row>
+    <row r="599" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U599" s="5"/>
+    </row>
+    <row r="600" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U600" s="5"/>
+    </row>
+    <row r="601" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U601" s="5"/>
+    </row>
+    <row r="602" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U602" s="5"/>
+    </row>
+    <row r="603" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U603" s="5"/>
+    </row>
+    <row r="604" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U604" s="5"/>
+    </row>
+    <row r="605" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U605" s="5"/>
+    </row>
+    <row r="606" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U606" s="5"/>
+    </row>
+    <row r="607" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U607" s="5"/>
+    </row>
+    <row r="608" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U608" s="5"/>
+    </row>
+    <row r="609" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U609" s="5"/>
+    </row>
+    <row r="610" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U610" s="5"/>
+    </row>
+    <row r="611" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U611" s="5"/>
+    </row>
+    <row r="612" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U612" s="5"/>
+    </row>
+    <row r="613" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U613" s="5"/>
+    </row>
+    <row r="614" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U614" s="5"/>
+    </row>
+    <row r="615" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U615" s="5"/>
+    </row>
+    <row r="616" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U616" s="5"/>
+    </row>
+    <row r="617" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U617" s="5"/>
+    </row>
+    <row r="618" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U618" s="5"/>
+    </row>
+    <row r="619" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U619" s="5"/>
+    </row>
+    <row r="620" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U620" s="5"/>
+    </row>
+    <row r="621" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U621" s="5"/>
+    </row>
+    <row r="622" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U622" s="5"/>
+    </row>
+    <row r="623" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U623" s="5"/>
+    </row>
+    <row r="624" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U624" s="5"/>
+    </row>
+    <row r="625" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U625" s="5"/>
+    </row>
+    <row r="626" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U626" s="5"/>
+    </row>
+    <row r="627" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U627" s="5"/>
+    </row>
+    <row r="628" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U628" s="5"/>
+    </row>
+    <row r="629" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U629" s="5"/>
+    </row>
+    <row r="630" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U630" s="5"/>
+    </row>
+    <row r="631" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U631" s="5"/>
+    </row>
+    <row r="632" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U632" s="5"/>
+    </row>
+    <row r="633" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U633" s="5"/>
+    </row>
+    <row r="634" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U634" s="5"/>
+    </row>
+    <row r="635" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U635" s="5"/>
+    </row>
+    <row r="636" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U636" s="5"/>
+    </row>
+    <row r="637" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U637" s="5"/>
+    </row>
+    <row r="638" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U638" s="5"/>
+    </row>
+    <row r="639" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U639" s="5"/>
+    </row>
+    <row r="640" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U640" s="5"/>
+    </row>
+    <row r="641" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U641" s="5"/>
+    </row>
+    <row r="642" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U642" s="5"/>
+    </row>
+    <row r="643" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U643" s="5"/>
+    </row>
+    <row r="644" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U644" s="5"/>
+    </row>
+    <row r="645" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U645" s="5"/>
+    </row>
+    <row r="646" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U646" s="5"/>
+    </row>
+    <row r="647" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U647" s="5"/>
+    </row>
+    <row r="648" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U648" s="5"/>
+    </row>
+    <row r="649" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U649" s="5"/>
+    </row>
+    <row r="650" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U650" s="5"/>
+    </row>
+    <row r="651" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U651" s="5"/>
+    </row>
+    <row r="652" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U652" s="5"/>
+    </row>
+    <row r="653" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U653" s="5"/>
+    </row>
+    <row r="654" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U654" s="5"/>
+    </row>
+    <row r="655" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U655" s="5"/>
+    </row>
+    <row r="656" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U656" s="5"/>
+    </row>
+    <row r="657" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U657" s="5"/>
+    </row>
+    <row r="658" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U658" s="5"/>
+    </row>
+    <row r="659" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U659" s="5"/>
+    </row>
+    <row r="660" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U660" s="5"/>
+    </row>
+    <row r="661" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U661" s="5"/>
+    </row>
+    <row r="662" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U662" s="5"/>
+    </row>
+    <row r="663" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U663" s="5"/>
+    </row>
+    <row r="664" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U664" s="5"/>
+    </row>
+    <row r="665" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U665" s="5"/>
+    </row>
+    <row r="666" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U666" s="5"/>
+    </row>
+    <row r="667" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U667" s="5"/>
+    </row>
+    <row r="668" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U668" s="5"/>
+    </row>
+    <row r="669" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U669" s="5"/>
+    </row>
+    <row r="670" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U670" s="5"/>
+    </row>
+    <row r="671" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U671" s="5"/>
+    </row>
+    <row r="672" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U672" s="5"/>
+    </row>
+    <row r="673" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U673" s="5"/>
+    </row>
+    <row r="674" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U674" s="5"/>
+    </row>
+    <row r="675" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U675" s="5"/>
+    </row>
+    <row r="676" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U676" s="5"/>
+    </row>
+    <row r="677" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U677" s="5"/>
+    </row>
+    <row r="678" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U678" s="5"/>
+    </row>
+    <row r="679" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U679" s="5"/>
+    </row>
+    <row r="680" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U680" s="5"/>
+    </row>
+    <row r="681" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U681" s="5"/>
+    </row>
+    <row r="682" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U682" s="5"/>
+    </row>
+    <row r="683" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U683" s="5"/>
+    </row>
+    <row r="684" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U684" s="5"/>
+    </row>
+    <row r="685" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U685" s="5"/>
+    </row>
+    <row r="686" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U686" s="5"/>
+    </row>
+    <row r="687" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U687" s="5"/>
+    </row>
+    <row r="688" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U688" s="5"/>
+    </row>
+    <row r="689" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U689" s="5"/>
+    </row>
+    <row r="690" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U690" s="5"/>
+    </row>
+    <row r="691" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U691" s="5"/>
+    </row>
+    <row r="692" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U692" s="5"/>
+    </row>
+    <row r="693" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U693" s="5"/>
+    </row>
+    <row r="694" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U694" s="5"/>
+    </row>
+    <row r="695" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U695" s="5"/>
+    </row>
+    <row r="696" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U696" s="5"/>
+    </row>
+    <row r="697" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U697" s="5"/>
+    </row>
+    <row r="698" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U698" s="5"/>
+    </row>
+    <row r="699" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U699" s="5"/>
+    </row>
+    <row r="700" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U700" s="5"/>
+    </row>
+    <row r="701" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U701" s="5"/>
+    </row>
+    <row r="702" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U702" s="5"/>
+    </row>
+    <row r="703" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U703" s="5"/>
+    </row>
+    <row r="704" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U704" s="5"/>
+    </row>
+    <row r="705" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U705" s="5"/>
+    </row>
+    <row r="706" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U706" s="5"/>
+    </row>
+    <row r="707" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U707" s="5"/>
+    </row>
+    <row r="708" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U708" s="5"/>
+    </row>
+    <row r="709" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U709" s="5"/>
+    </row>
+    <row r="710" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U710" s="5"/>
+    </row>
+    <row r="711" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U711" s="5"/>
+    </row>
+    <row r="712" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U712" s="5"/>
+    </row>
+    <row r="713" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U713" s="5"/>
+    </row>
+    <row r="714" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U714" s="5"/>
+    </row>
+    <row r="715" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U715" s="5"/>
+    </row>
+    <row r="716" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U716" s="5"/>
+    </row>
+    <row r="717" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U717" s="5"/>
+    </row>
+    <row r="718" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U718" s="5"/>
+    </row>
+    <row r="719" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U719" s="5"/>
+    </row>
+    <row r="720" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U720" s="5"/>
+    </row>
+    <row r="721" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U721" s="5"/>
+    </row>
+    <row r="722" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U722" s="5"/>
+    </row>
+    <row r="723" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U723" s="5"/>
+    </row>
+    <row r="724" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U724" s="5"/>
+    </row>
+    <row r="725" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U725" s="5"/>
+    </row>
+    <row r="726" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U726" s="5"/>
+    </row>
+    <row r="727" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U727" s="5"/>
+    </row>
+    <row r="728" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U728" s="5"/>
+    </row>
+    <row r="729" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U729" s="5"/>
+    </row>
+    <row r="730" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U730" s="5"/>
+    </row>
+    <row r="731" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U731" s="5"/>
+    </row>
+    <row r="732" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U732" s="5"/>
+    </row>
+    <row r="733" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U733" s="5"/>
+    </row>
+    <row r="734" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U734" s="5"/>
+    </row>
+    <row r="735" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U735" s="5"/>
+    </row>
+    <row r="736" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U736" s="5"/>
+    </row>
+    <row r="737" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U737" s="5"/>
+    </row>
+    <row r="738" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U738" s="5"/>
+    </row>
+    <row r="739" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U739" s="5"/>
+    </row>
+    <row r="740" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U740" s="5"/>
+    </row>
+    <row r="741" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U741" s="5"/>
+    </row>
+    <row r="742" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U742" s="5"/>
+    </row>
+    <row r="743" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U743" s="5"/>
+    </row>
+    <row r="744" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U744" s="5"/>
+    </row>
+    <row r="745" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U745" s="5"/>
+    </row>
+    <row r="746" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U746" s="5"/>
+    </row>
+    <row r="747" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U747" s="5"/>
+    </row>
+    <row r="748" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U748" s="5"/>
+    </row>
+    <row r="749" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U749" s="5"/>
+    </row>
+    <row r="750" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U750" s="5"/>
+    </row>
+    <row r="751" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U751" s="5"/>
+    </row>
+    <row r="752" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U752" s="5"/>
+    </row>
+    <row r="753" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U753" s="5"/>
+    </row>
+    <row r="754" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U754" s="5"/>
+    </row>
+    <row r="755" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U755" s="5"/>
+    </row>
+    <row r="756" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U756" s="5"/>
+    </row>
+    <row r="757" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U757" s="5"/>
+    </row>
+    <row r="758" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U758" s="5"/>
+    </row>
+    <row r="759" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U759" s="5"/>
+    </row>
+    <row r="760" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U760" s="5"/>
+    </row>
+    <row r="761" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U761" s="5"/>
+    </row>
+    <row r="762" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U762" s="5"/>
+    </row>
+    <row r="763" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U763" s="5"/>
+    </row>
+    <row r="764" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U764" s="5"/>
+    </row>
+    <row r="765" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U765" s="5"/>
+    </row>
+    <row r="766" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U766" s="5"/>
+    </row>
+    <row r="767" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U767" s="5"/>
+    </row>
+    <row r="768" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U768" s="5"/>
+    </row>
+    <row r="769" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U769" s="5"/>
+    </row>
+    <row r="770" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U770" s="5"/>
+    </row>
+    <row r="771" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U771" s="5"/>
+    </row>
+    <row r="772" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U772" s="5"/>
+    </row>
+    <row r="773" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U773" s="5"/>
+    </row>
+    <row r="774" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U774" s="5"/>
+    </row>
+    <row r="775" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U775" s="5"/>
+    </row>
+    <row r="776" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U776" s="5"/>
+    </row>
+    <row r="777" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U777" s="5"/>
+    </row>
+    <row r="778" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U778" s="5"/>
+    </row>
+    <row r="779" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U779" s="5"/>
+    </row>
+    <row r="780" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U780" s="5"/>
+    </row>
+    <row r="781" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U781" s="5"/>
+    </row>
+    <row r="782" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U782" s="5"/>
+    </row>
+    <row r="783" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U783" s="5"/>
+    </row>
+    <row r="784" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U784" s="5"/>
+    </row>
+    <row r="785" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U785" s="5"/>
+    </row>
+    <row r="786" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U786" s="5"/>
+    </row>
+    <row r="787" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U787" s="5"/>
+    </row>
+    <row r="788" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U788" s="5"/>
+    </row>
+    <row r="789" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U789" s="5"/>
+    </row>
+    <row r="790" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U790" s="5"/>
+    </row>
+    <row r="791" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U791" s="5"/>
+    </row>
+    <row r="792" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U792" s="5"/>
+    </row>
+    <row r="793" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U793" s="5"/>
+    </row>
+    <row r="794" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U794" s="5"/>
+    </row>
+    <row r="795" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U795" s="5"/>
+    </row>
+    <row r="796" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U796" s="5"/>
+    </row>
+    <row r="797" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U797" s="5"/>
+    </row>
+    <row r="798" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U798" s="5"/>
+    </row>
+    <row r="799" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U799" s="5"/>
+    </row>
+    <row r="800" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U800" s="5"/>
+    </row>
+    <row r="801" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U801" s="5"/>
+    </row>
+    <row r="802" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U802" s="5"/>
+    </row>
+    <row r="803" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U803" s="5"/>
+    </row>
+    <row r="804" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U804" s="5"/>
+    </row>
+    <row r="805" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U805" s="5"/>
+    </row>
+    <row r="806" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U806" s="5"/>
+    </row>
+    <row r="807" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U807" s="5"/>
+    </row>
+    <row r="808" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U808" s="5"/>
+    </row>
+    <row r="809" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U809" s="5"/>
+    </row>
+    <row r="810" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U810" s="5"/>
+    </row>
+    <row r="811" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U811" s="5"/>
+    </row>
+    <row r="812" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U812" s="5"/>
+    </row>
+    <row r="813" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U813" s="5"/>
+    </row>
+    <row r="814" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U814" s="5"/>
+    </row>
+    <row r="815" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U815" s="5"/>
+    </row>
+    <row r="816" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U816" s="5"/>
+    </row>
+    <row r="817" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U817" s="5"/>
+    </row>
+    <row r="818" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U818" s="5"/>
+    </row>
+    <row r="819" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U819" s="5"/>
+    </row>
+    <row r="820" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U820" s="5"/>
+    </row>
+    <row r="821" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U821" s="5"/>
+    </row>
+    <row r="822" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U822" s="5"/>
+    </row>
+    <row r="823" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U823" s="5"/>
+    </row>
+    <row r="824" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U824" s="5"/>
+    </row>
+    <row r="825" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U825" s="5"/>
+    </row>
+    <row r="826" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U826" s="5"/>
+    </row>
+    <row r="827" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U827" s="5"/>
+    </row>
+    <row r="828" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U828" s="5"/>
+    </row>
+    <row r="829" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U829" s="5"/>
+    </row>
+    <row r="830" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U830" s="5"/>
+    </row>
+    <row r="831" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U831" s="5"/>
+    </row>
+    <row r="832" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U832" s="5"/>
+    </row>
+    <row r="833" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U833" s="5"/>
+    </row>
+    <row r="834" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U834" s="5"/>
+    </row>
+    <row r="835" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U835" s="5"/>
+    </row>
+    <row r="836" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U836" s="5"/>
+    </row>
+    <row r="837" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U837" s="5"/>
+    </row>
+    <row r="838" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U838" s="5"/>
+    </row>
+    <row r="839" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U839" s="5"/>
+    </row>
+    <row r="840" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U840" s="5"/>
+    </row>
+    <row r="841" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U841" s="5"/>
+    </row>
+    <row r="842" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U842" s="5"/>
+    </row>
+    <row r="843" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U843" s="5"/>
+    </row>
+    <row r="844" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U844" s="5"/>
+    </row>
+    <row r="845" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U845" s="5"/>
+    </row>
+    <row r="846" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U846" s="5"/>
+    </row>
+    <row r="847" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U847" s="5"/>
+    </row>
+    <row r="848" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U848" s="5"/>
+    </row>
+    <row r="849" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U849" s="5"/>
+    </row>
+    <row r="850" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U850" s="5"/>
+    </row>
+    <row r="851" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U851" s="5"/>
+    </row>
+    <row r="852" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U852" s="5"/>
+    </row>
+    <row r="853" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U853" s="5"/>
+    </row>
+    <row r="854" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U854" s="5"/>
+    </row>
+    <row r="855" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U855" s="5"/>
+    </row>
+    <row r="856" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U856" s="5"/>
+    </row>
+    <row r="857" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U857" s="5"/>
+    </row>
+    <row r="858" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U858" s="5"/>
+    </row>
+    <row r="859" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U859" s="5"/>
+    </row>
+    <row r="860" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U860" s="5"/>
+    </row>
+    <row r="861" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U861" s="5"/>
+    </row>
+    <row r="862" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U862" s="5"/>
+    </row>
+    <row r="863" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U863" s="5"/>
+    </row>
+    <row r="864" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U864" s="5"/>
+    </row>
+    <row r="865" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U865" s="5"/>
+    </row>
+    <row r="866" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U866" s="5"/>
+    </row>
+    <row r="867" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U867" s="5"/>
+    </row>
+    <row r="868" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U868" s="5"/>
+    </row>
+    <row r="869" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U869" s="5"/>
+    </row>
+    <row r="870" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U870" s="5"/>
+    </row>
+    <row r="871" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U871" s="5"/>
+    </row>
+    <row r="872" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U872" s="5"/>
+    </row>
+    <row r="873" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U873" s="5"/>
+    </row>
+    <row r="874" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U874" s="5"/>
+    </row>
+    <row r="875" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U875" s="5"/>
+    </row>
+    <row r="876" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U876" s="5"/>
+    </row>
+    <row r="877" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U877" s="5"/>
+    </row>
+    <row r="878" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U878" s="5"/>
+    </row>
+    <row r="879" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U879" s="5"/>
+    </row>
+    <row r="880" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U880" s="5"/>
+    </row>
+    <row r="881" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U881" s="5"/>
+    </row>
+    <row r="882" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U882" s="5"/>
+    </row>
+    <row r="883" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U883" s="5"/>
+    </row>
+    <row r="884" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U884" s="5"/>
+    </row>
+    <row r="885" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U885" s="5"/>
+    </row>
+    <row r="886" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U886" s="5"/>
+    </row>
+    <row r="887" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U887" s="5"/>
+    </row>
+    <row r="888" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U888" s="5"/>
+    </row>
+    <row r="889" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U889" s="5"/>
+    </row>
+    <row r="890" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U890" s="5"/>
+    </row>
+    <row r="891" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U891" s="5"/>
+    </row>
+    <row r="892" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U892" s="5"/>
+    </row>
+    <row r="893" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U893" s="5"/>
+    </row>
+    <row r="894" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U894" s="5"/>
+    </row>
+    <row r="895" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U895" s="5"/>
+    </row>
+    <row r="896" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U896" s="5"/>
+    </row>
+    <row r="897" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U897" s="5"/>
+    </row>
+    <row r="898" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U898" s="5"/>
+    </row>
+    <row r="899" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U899" s="5"/>
+    </row>
+    <row r="900" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U900" s="5"/>
+    </row>
+    <row r="901" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U901" s="5"/>
+    </row>
+    <row r="902" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U902" s="5"/>
+    </row>
+    <row r="903" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U903" s="5"/>
+    </row>
+    <row r="904" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U904" s="5"/>
+    </row>
+    <row r="905" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U905" s="5"/>
+    </row>
+    <row r="906" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U906" s="5"/>
+    </row>
+    <row r="907" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U907" s="5"/>
+    </row>
+    <row r="908" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U908" s="5"/>
+    </row>
+    <row r="909" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U909" s="5"/>
+    </row>
+    <row r="910" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U910" s="5"/>
+    </row>
+    <row r="911" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U911" s="5"/>
+    </row>
+    <row r="912" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U912" s="5"/>
+    </row>
+    <row r="913" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U913" s="5"/>
+    </row>
+    <row r="914" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U914" s="5"/>
+    </row>
+    <row r="915" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U915" s="5"/>
+    </row>
+    <row r="916" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U916" s="5"/>
+    </row>
+    <row r="917" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U917" s="5"/>
+    </row>
+    <row r="918" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U918" s="5"/>
+    </row>
+    <row r="919" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U919" s="5"/>
+    </row>
+    <row r="920" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U920" s="5"/>
+    </row>
+    <row r="921" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U921" s="5"/>
+    </row>
+    <row r="922" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U922" s="5"/>
+    </row>
+    <row r="923" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U923" s="5"/>
+    </row>
+    <row r="924" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U924" s="5"/>
+    </row>
+    <row r="925" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U925" s="5"/>
+    </row>
+    <row r="926" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U926" s="5"/>
+    </row>
+    <row r="927" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U927" s="5"/>
+    </row>
+    <row r="928" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U928" s="5"/>
+    </row>
+    <row r="929" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U929" s="5"/>
+    </row>
+    <row r="930" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U930" s="5"/>
+    </row>
+    <row r="931" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U931" s="5"/>
+    </row>
+    <row r="932" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U932" s="5"/>
+    </row>
+    <row r="933" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U933" s="5"/>
+    </row>
+    <row r="934" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U934" s="5"/>
+    </row>
+    <row r="935" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U935" s="5"/>
+    </row>
+    <row r="936" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U936" s="5"/>
+    </row>
+    <row r="937" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U937" s="5"/>
+    </row>
+    <row r="938" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U938" s="5"/>
+    </row>
+    <row r="939" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U939" s="5"/>
+    </row>
+    <row r="940" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U940" s="5"/>
+    </row>
+    <row r="941" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U941" s="5"/>
+    </row>
+    <row r="942" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U942" s="5"/>
+    </row>
+    <row r="943" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U943" s="5"/>
+    </row>
+    <row r="944" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U944" s="5"/>
+    </row>
+    <row r="945" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U945" s="5"/>
+    </row>
+    <row r="946" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U946" s="5"/>
+    </row>
+    <row r="947" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U947" s="5"/>
+    </row>
+    <row r="948" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U948" s="5"/>
+    </row>
+    <row r="949" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U949" s="5"/>
+    </row>
+    <row r="950" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U950" s="5"/>
+    </row>
+    <row r="951" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U951" s="5"/>
+    </row>
+    <row r="952" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U952" s="5"/>
+    </row>
+    <row r="953" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U953" s="5"/>
+    </row>
+    <row r="954" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U954" s="5"/>
+    </row>
+    <row r="955" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U955" s="5"/>
+    </row>
+    <row r="956" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U956" s="5"/>
+    </row>
+    <row r="957" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U957" s="5"/>
+    </row>
+    <row r="958" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U958" s="5"/>
+    </row>
+    <row r="959" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U959" s="5"/>
+    </row>
+    <row r="960" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U960" s="5"/>
+    </row>
+    <row r="961" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U961" s="5"/>
+    </row>
+    <row r="962" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U962" s="5"/>
+    </row>
+    <row r="963" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U963" s="5"/>
+    </row>
+    <row r="964" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U964" s="5"/>
+    </row>
+    <row r="965" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U965" s="5"/>
+    </row>
+    <row r="966" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U966" s="5"/>
+    </row>
+    <row r="967" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U967" s="5"/>
+    </row>
+    <row r="968" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U968" s="5"/>
+    </row>
+    <row r="969" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U969" s="5"/>
+    </row>
+    <row r="970" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U970" s="5"/>
+    </row>
+    <row r="971" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U971" s="5"/>
+    </row>
+    <row r="972" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U972" s="5"/>
+    </row>
+    <row r="973" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U973" s="5"/>
+    </row>
+    <row r="974" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U974" s="5"/>
+    </row>
+    <row r="975" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U975" s="5"/>
+    </row>
+    <row r="976" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U976" s="5"/>
+    </row>
+    <row r="977" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U977" s="5"/>
+    </row>
+    <row r="978" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U978" s="5"/>
+    </row>
+    <row r="979" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U979" s="5"/>
+    </row>
+    <row r="980" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U980" s="5"/>
+    </row>
+    <row r="981" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U981" s="5"/>
+    </row>
+    <row r="982" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U982" s="5"/>
+    </row>
+    <row r="983" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U983" s="5"/>
+    </row>
+    <row r="984" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U984" s="5"/>
+    </row>
+    <row r="985" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U985" s="5"/>
+    </row>
+    <row r="986" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U986" s="5"/>
+    </row>
+    <row r="987" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U987" s="5"/>
+    </row>
+    <row r="988" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U988" s="5"/>
+    </row>
+    <row r="989" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U989" s="5"/>
+    </row>
+    <row r="990" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U990" s="5"/>
+    </row>
+    <row r="991" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U991" s="5"/>
+    </row>
+    <row r="992" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U992" s="5"/>
+    </row>
+    <row r="993" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U993" s="5"/>
+    </row>
+    <row r="994" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U994" s="5"/>
+    </row>
+    <row r="995" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U995" s="5"/>
+    </row>
+    <row r="996" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U996" s="5"/>
+    </row>
+    <row r="997" spans="21:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U997" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
